--- a/data/iartypre19.xlsx
+++ b/data/iartypre19.xlsx
@@ -56,114 +56,114 @@
   <sheetData>
     <row r="11">
       <c r="A11">
-        <v>0.69386919753102039</v>
+        <v>0.93537576971028091</v>
       </c>
       <c r="B11">
-        <v>0.7524353989164082</v>
+        <v>0.92534891032498712</v>
       </c>
       <c r="C11">
-        <v>0.30613080246897961</v>
+        <v>0.064624230289719115</v>
       </c>
       <c r="D11">
-        <v>0.24756460108359182</v>
+        <v>0.074651089675012799</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.01568097257975213</v>
+        <v>0.0037848435579130213</v>
       </c>
       <c r="B12">
-        <v>0.012262388762773732</v>
+        <v>0.0040631453788911413</v>
       </c>
       <c r="C12">
-        <v>0.01568097257975213</v>
+        <v>0.0037848435579130213</v>
       </c>
       <c r="D12">
-        <v>0.012262388762773732</v>
+        <v>0.0040631453788911413</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>44.249117457610431</v>
+        <v>247.13723444518035</v>
       </c>
       <c r="B13">
-        <v>61.361241555206455</v>
+        <v>227.74201364597022</v>
       </c>
       <c r="C13">
-        <v>19.522437202923715</v>
+        <v>17.074478588317977</v>
       </c>
       <c r="D13">
-        <v>20.188937561264623</v>
+        <v>18.372734104676699</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2.4405625950018629e-302</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.2109452058961548e-78</v>
+        <v>2.9097715456406396e-64</v>
       </c>
       <c r="D14">
-        <v>5.9852736190299106e-83</v>
+        <v>6.4271200361009668e-74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.66311724710627795</v>
+        <v>0.92795652218552849</v>
       </c>
       <c r="B15">
-        <v>0.72838763214659363</v>
+        <v>0.91738412107180334</v>
       </c>
       <c r="C15">
-        <v>0.27537885204423718</v>
+        <v>0.057204982764966647</v>
       </c>
       <c r="D15">
-        <v>0.22351683431377728</v>
+        <v>0.066686300421829006</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.72462114795576282</v>
+        <v>0.94279501723503334</v>
       </c>
       <c r="B16">
-        <v>0.77648316568622278</v>
+        <v>0.9333136995781709</v>
       </c>
       <c r="C16">
-        <v>0.33688275289372205</v>
+        <v>0.072043477814471582</v>
       </c>
       <c r="D16">
-        <v>0.27161236785340637</v>
+        <v>0.082615878928196593</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B17">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C17">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D17">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B18">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C18">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D18">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="19">
@@ -182,114 +182,114 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.50445187421141768</v>
+        <v>0.89556150286254377</v>
       </c>
       <c r="B21">
-        <v>0.39321731567636731</v>
+        <v>0.81738461208652535</v>
       </c>
       <c r="C21">
-        <v>0.49554812578858237</v>
+        <v>0.10443849713745623</v>
       </c>
       <c r="D21">
-        <v>0.6067826843236328</v>
+        <v>0.18261538791347465</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.016981727923448754</v>
+        <v>0.0046485294101752369</v>
       </c>
       <c r="B22">
-        <v>0.013706488085631647</v>
+        <v>0.0056391162087607678</v>
       </c>
       <c r="C22">
-        <v>0.016981727923448754</v>
+        <v>0.0046485294101752369</v>
       </c>
       <c r="D22">
-        <v>0.013706488085631647</v>
+        <v>0.0056391162087607678</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>29.705568036740193</v>
+        <v>192.65479979587428</v>
       </c>
       <c r="B23">
-        <v>28.68840750597321</v>
+        <v>144.9490632621935</v>
       </c>
       <c r="C23">
-        <v>29.181254582716424</v>
+        <v>22.466997177397484</v>
       </c>
       <c r="D23">
-        <v>44.269741492696156</v>
+        <v>32.383689421006906</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>4.5459622120203062e-162</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>6.7442646092158473e-153</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>2.5225376188287185e-157</v>
+        <v>1.5201699643263312e-108</v>
       </c>
       <c r="D24">
-        <v>1.5231885747561292e-302</v>
+        <v>1.1744609230481907e-216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.47114901288872957</v>
+        <v>0.886449213333938</v>
       </c>
       <c r="B25">
-        <v>0.36633752617587895</v>
+        <v>0.80633052270780625</v>
       </c>
       <c r="C25">
-        <v>0.46224526446589426</v>
+        <v>0.095326207608850508</v>
       </c>
       <c r="D25">
-        <v>0.57990289482314439</v>
+        <v>0.17156129853475552</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.5377547355341058</v>
+        <v>0.90467379239114953</v>
       </c>
       <c r="B26">
-        <v>0.42009710517685567</v>
+        <v>0.82843870146524445</v>
       </c>
       <c r="C26">
-        <v>0.52885098711127054</v>
+        <v>0.11355078666606196</v>
       </c>
       <c r="D26">
-        <v>0.63366247382412122</v>
+        <v>0.19366947729219378</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B27">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C27">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D27">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B28">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C28">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D28">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="29">
@@ -308,44 +308,44 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.97835035808807158</v>
+        <v>0.99538426191654461</v>
       </c>
       <c r="B31">
-        <v>0.97987685767126909</v>
+        <v>0.99390712878208143</v>
       </c>
       <c r="C31">
-        <v>0.021649641911928426</v>
+        <v>0.004615738083455459</v>
       </c>
       <c r="D31">
-        <v>0.020123142328730866</v>
+        <v>0.0060928712179186576</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.0049155526195902074</v>
+        <v>0.0010560390448340171</v>
       </c>
       <c r="B32">
-        <v>0.0039739929134975172</v>
+        <v>0.0012147928963455363</v>
       </c>
       <c r="C32">
-        <v>0.0049155526195902074</v>
+        <v>0.0010560390448340171</v>
       </c>
       <c r="D32">
-        <v>0.0039739929134975172</v>
+        <v>0.0012147928963455363</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>199.0316112554672</v>
+        <v>942.56388225966975</v>
       </c>
       <c r="B33">
-        <v>246.57237166758759</v>
+        <v>818.17002039776003</v>
       </c>
       <c r="C33">
-        <v>4.4043149544665603</v>
+        <v>4.3708024869297688</v>
       </c>
       <c r="D33">
-        <v>5.0637086594652372</v>
+        <v>5.0155637526757468</v>
       </c>
     </row>
     <row r="34">
@@ -356,66 +356,66 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1.1147790662852927e-05</v>
+        <v>1.2531020083883242e-05</v>
       </c>
       <c r="D34">
-        <v>4.4721480786102711e-07</v>
+        <v>5.3982785807188848e-07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.96871046938225003</v>
+        <v>0.99331415916340815</v>
       </c>
       <c r="B35">
-        <v>0.97208346141076207</v>
+        <v>0.99152582845846426</v>
       </c>
       <c r="C35">
-        <v>0.012009753206106819</v>
+        <v>0.0025456353303189455</v>
       </c>
       <c r="D35">
-        <v>0.012329746068223844</v>
+        <v>0.0037115708943015234</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.98799024679389313</v>
+        <v>0.99745436466968107</v>
       </c>
       <c r="B36">
-        <v>0.9876702539317761</v>
+        <v>0.99628842910569859</v>
       </c>
       <c r="C36">
-        <v>0.031289530617750035</v>
+        <v>0.006685840836591973</v>
       </c>
       <c r="D36">
-        <v>0.027916538589237885</v>
+        <v>0.008474171541535791</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B37">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C37">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D37">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B38">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C38">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D38">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="39">
@@ -434,44 +434,44 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.82332857016949035</v>
+        <v>0.9625470842241961</v>
       </c>
       <c r="B41">
-        <v>0.8744704277359554</v>
+        <v>0.96200264013504033</v>
       </c>
       <c r="C41">
-        <v>0.1766714298305096</v>
+        <v>0.037452915775803813</v>
       </c>
       <c r="D41">
-        <v>0.12552957226404463</v>
+        <v>0.037997359864959702</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.01289797071408422</v>
+        <v>0.0029473523389965234</v>
       </c>
       <c r="B42">
-        <v>0.0093243645935467221</v>
+        <v>0.0029865963113153713</v>
       </c>
       <c r="C42">
-        <v>0.01289797071408422</v>
+        <v>0.0029473523389965234</v>
       </c>
       <c r="D42">
-        <v>0.0093243645935467221</v>
+        <v>0.0029865963113153713</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>63.833961823966519</v>
+        <v>326.58025696103635</v>
       </c>
       <c r="B43">
-        <v>93.783379978638507</v>
+        <v>322.1066859589572</v>
       </c>
       <c r="C43">
-        <v>13.697614434617174</v>
+        <v>12.707308617386172</v>
       </c>
       <c r="D43">
-        <v>13.462533667004195</v>
+        <v>12.722630012298087</v>
       </c>
     </row>
     <row r="44">
@@ -482,66 +482,66 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>5.8296936551761415e-41</v>
+        <v>1.1879198586601646e-36</v>
       </c>
       <c r="D44">
-        <v>1.1130063751165598e-39</v>
+        <v>9.8017542645614011e-37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.79803436383362492</v>
+        <v>0.95676953061832637</v>
       </c>
       <c r="B45">
-        <v>0.85618441924607225</v>
+        <v>0.95614815845010126</v>
       </c>
       <c r="C45">
-        <v>0.15137722349464422</v>
+        <v>0.031675362169934038</v>
       </c>
       <c r="D45">
-        <v>0.10724356377416147</v>
+        <v>0.03214287818002063</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.84862277650535578</v>
+        <v>0.96832463783006584</v>
       </c>
       <c r="B46">
-        <v>0.89275643622583856</v>
+        <v>0.9678571218199794</v>
       </c>
       <c r="C46">
-        <v>0.20196563616637497</v>
+        <v>0.043230469381673589</v>
       </c>
       <c r="D46">
-        <v>0.14381558075392778</v>
+        <v>0.043851841549898775</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B47">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C47">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D47">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B48">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C48">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D48">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="49">
@@ -560,67 +560,67 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.71365638766519823</v>
+        <v>0.97951465490072498</v>
       </c>
       <c r="B51">
-        <v>0.70676691729323304</v>
+        <v>0.91311266709102479</v>
       </c>
       <c r="C51">
-        <v>0.75187165775401066</v>
+        <v>0.87935517420696829</v>
       </c>
       <c r="D51">
-        <v>0.28634361233480177</v>
+        <v>0.020485345099275135</v>
       </c>
       <c r="E51">
-        <v>0.2932330827067669</v>
+        <v>0.086887332908975171</v>
       </c>
       <c r="F51">
-        <v>0.24812834224598931</v>
+        <v>0.12064482579303173</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.030003740443019161</v>
+        <v>0.0025147341251038377</v>
       </c>
       <c r="B52">
-        <v>0.014920031802701123</v>
+        <v>0.0050250145845651571</v>
       </c>
       <c r="C52">
-        <v>0.014125513308367314</v>
+        <v>0.0074275719915915875</v>
       </c>
       <c r="D52">
-        <v>0.030003740443019161</v>
+        <v>0.0025147341251038377</v>
       </c>
       <c r="E52">
-        <v>0.014920031802701123</v>
+        <v>0.0050250145845651571</v>
       </c>
       <c r="F52">
-        <v>0.014125513308367314</v>
+        <v>0.0074275719915915875</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>23.785580635205154</v>
+        <v>389.51022500650208</v>
       </c>
       <c r="B53">
-        <v>47.370335843739952</v>
+        <v>181.71343619494024</v>
       </c>
       <c r="C53">
-        <v>53.227917551756221</v>
+        <v>118.39066322109646</v>
       </c>
       <c r="D53">
-        <v>9.543597168446512</v>
+        <v>8.1461276143573471</v>
       </c>
       <c r="E53">
-        <v>19.653649977721894</v>
+        <v>17.290961338870229</v>
       </c>
       <c r="F53">
-        <v>17.565969945956535</v>
+        <v>16.242834930392892</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>7.1353128481023496e-111</v>
+        <v>0</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -629,93 +629,93 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>3.6965686799933803e-21</v>
+        <v>4.3091752683589519e-16</v>
       </c>
       <c r="E54">
-        <v>4.7736396645406735e-79</v>
+        <v>7.9260518610077502e-66</v>
       </c>
       <c r="F54">
-        <v>1.5473877349413018e-64</v>
+        <v>2.019145039642032e-58</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.65481606166067752</v>
+        <v>0.97458514205624303</v>
       </c>
       <c r="B55">
-        <v>0.67750724758851766</v>
+        <v>0.90326237170947998</v>
       </c>
       <c r="C55">
-        <v>0.72417011802019027</v>
+        <v>0.86479526062789214</v>
       </c>
       <c r="D55">
-        <v>0.22750328633028111</v>
+        <v>0.01555583225479313</v>
       </c>
       <c r="E55">
-        <v>0.26397341300205157</v>
+        <v>0.077037037527430408</v>
       </c>
       <c r="F55">
-        <v>0.22042680251216895</v>
+        <v>0.10608491221395559</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.77249671366971895</v>
+        <v>0.98444416774520693</v>
       </c>
       <c r="B56">
-        <v>0.73602658699794843</v>
+        <v>0.92296296247256959</v>
       </c>
       <c r="C56">
-        <v>0.77957319748783105</v>
+        <v>0.89391508778604445</v>
       </c>
       <c r="D56">
-        <v>0.34518393833932243</v>
+        <v>0.025414857943757141</v>
       </c>
       <c r="E56">
-        <v>0.32249275241148223</v>
+        <v>0.096737628290519934</v>
       </c>
       <c r="F56">
-        <v>0.27582988197980968</v>
+        <v>0.13520473937210786</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B57">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C57">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D57">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E57">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F57">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B58">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C58">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D58">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E58">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F58">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="59">
@@ -740,162 +740,162 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.59911894273127753</v>
+        <v>0.97132051686101484</v>
       </c>
       <c r="B61">
-        <v>0.45972073039742212</v>
+        <v>0.83991088478676001</v>
       </c>
       <c r="C61">
-        <v>0.38395721925133691</v>
+        <v>0.70046801872074882</v>
       </c>
       <c r="D61">
-        <v>0.40088105726872242</v>
+        <v>0.028679483138985183</v>
       </c>
       <c r="E61">
-        <v>0.54027926960257788</v>
+        <v>0.16008911521323999</v>
       </c>
       <c r="F61">
-        <v>0.61604278074866314</v>
+        <v>0.29953198127925118</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.032527550856492934</v>
+        <v>0.0029630017310276935</v>
       </c>
       <c r="B62">
-        <v>0.016333578930771329</v>
+        <v>0.006541757132392737</v>
       </c>
       <c r="C62">
-        <v>0.015905270139813629</v>
+        <v>0.010445424954523922</v>
       </c>
       <c r="D62">
-        <v>0.032527550856492934</v>
+        <v>0.0029630017310276935</v>
       </c>
       <c r="E62">
-        <v>0.016333578930771329</v>
+        <v>0.006541757132392737</v>
       </c>
       <c r="F62">
-        <v>0.015905270139813629</v>
+        <v>0.010445424954523922</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>18.418815033892582</v>
+        <v>327.81638521828336</v>
       </c>
       <c r="B63">
-        <v>28.145743951519417</v>
+        <v>128.39224504801376</v>
       </c>
       <c r="C63">
-        <v>24.140251368018323</v>
+        <v>67.059791417808768</v>
       </c>
       <c r="D63">
-        <v>12.324354177089887</v>
+        <v>9.6791989146216029</v>
       </c>
       <c r="E63">
-        <v>33.0778252514352</v>
+        <v>24.471883008393679</v>
       </c>
       <c r="F63">
-        <v>38.731991052865055</v>
+        <v>28.675901898038493</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>2.5229466399928396e-70</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>4.6296720485350831e-148</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>8.9723136645675124e-114</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>9.6500722276710511e-34</v>
+        <v>4.8420508996061102e-22</v>
       </c>
       <c r="E64">
-        <v>2.5063300168059325e-193</v>
+        <v>9.8921552662829684e-128</v>
       </c>
       <c r="F64">
-        <v>7.7442524109305438e-248</v>
+        <v>1.8434094781833554e-172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.53532917291376214</v>
+        <v>0.9655122865015846</v>
       </c>
       <c r="B65">
-        <v>0.42768895386168143</v>
+        <v>0.82708739164380984</v>
       </c>
       <c r="C65">
-        <v>0.3527653989516667</v>
+        <v>0.67999235253982704</v>
       </c>
       <c r="D65">
-        <v>0.33709128745120703</v>
+        <v>0.022871252779554912</v>
       </c>
       <c r="E65">
-        <v>0.50824749306683714</v>
+        <v>0.14726562207028984</v>
       </c>
       <c r="F65">
-        <v>0.58485096044899287</v>
+        <v>0.2790563150983294</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.66290871254879291</v>
+        <v>0.97712874722044507</v>
       </c>
       <c r="B66">
-        <v>0.4917525069331628</v>
+        <v>0.85273437792971019</v>
       </c>
       <c r="C66">
-        <v>0.41514903955100713</v>
+        <v>0.7209436849016706</v>
       </c>
       <c r="D66">
-        <v>0.4646708270862378</v>
+        <v>0.034487713498415451</v>
       </c>
       <c r="E66">
-        <v>0.57231104613831862</v>
+        <v>0.17291260835619013</v>
       </c>
       <c r="F66">
-        <v>0.64723460104833341</v>
+        <v>0.32000764746017296</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B67">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C67">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D67">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E67">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F67">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B68">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C68">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D68">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E68">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F68">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="69">
@@ -920,62 +920,62 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.96035242290748912</v>
+        <v>0.99716356760163882</v>
       </c>
       <c r="B71">
-        <v>0.97529538131041904</v>
+        <v>0.99267982176957348</v>
       </c>
       <c r="C71">
-        <v>0.98716577540106942</v>
+        <v>0.99375975039001552</v>
       </c>
       <c r="D71">
-        <v>0.039647577092511016</v>
+        <v>0.0028364323983611725</v>
       </c>
       <c r="E71">
-        <v>0.024704618689581095</v>
+        <v>0.0073201782304264801</v>
       </c>
       <c r="F71">
-        <v>0.012834224598930483</v>
+        <v>0.0062402496099843996</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.012951221044130939</v>
+        <v>0.00094413562247409682</v>
       </c>
       <c r="B72">
-        <v>0.0050872411014897716</v>
+        <v>0.0015207657897381326</v>
       </c>
       <c r="C72">
-        <v>0.0036810698395306632</v>
+        <v>0.0017957754920020631</v>
       </c>
       <c r="D72">
-        <v>0.012951221044130939</v>
+        <v>0.00094413562247409682</v>
       </c>
       <c r="E72">
-        <v>0.0050872411014897716</v>
+        <v>0.0015207657897381326</v>
       </c>
       <c r="F72">
-        <v>0.0036810698395306632</v>
+        <v>0.0017957754920020631</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>74.151496575891485</v>
+        <v>1056.1656014933351</v>
       </c>
       <c r="B73">
-        <v>191.71400801601658</v>
+        <v>652.74996877757712</v>
       </c>
       <c r="C73">
-        <v>268.1736067053086</v>
+        <v>553.38752244697287</v>
       </c>
       <c r="D73">
-        <v>3.061300317353318</v>
+        <v>3.0042637210619518</v>
       </c>
       <c r="E73">
-        <v>4.8561918330048242</v>
+        <v>4.8134816549805306</v>
       </c>
       <c r="F73">
-        <v>3.4865474327884112</v>
+        <v>3.4749608944864865</v>
       </c>
     </row>
     <row r="74">
@@ -989,93 +989,93 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.0022318322753768572</v>
+        <v>0.0026702526022528176</v>
       </c>
       <c r="E74">
-        <v>1.2854037576969008e-06</v>
+        <v>1.5096422595545328e-06</v>
       </c>
       <c r="F74">
-        <v>0.00049940106214845718</v>
+        <v>0.00051355927889838368</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.93495378736601364</v>
+        <v>0.99531282376694941</v>
       </c>
       <c r="B75">
-        <v>0.965318794376409</v>
+        <v>0.98969873743977244</v>
       </c>
       <c r="C75">
-        <v>0.97994683048935971</v>
+        <v>0.9902395777143993</v>
       </c>
       <c r="D75">
-        <v>0.014248941551035493</v>
+        <v>0.00098568856367173101</v>
       </c>
       <c r="E75">
-        <v>0.014728031755571008</v>
+        <v>0.0043390939006254532</v>
       </c>
       <c r="F75">
-        <v>0.0056152796872207464</v>
+        <v>0.0027200769343681905</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.9857510584489646</v>
+        <v>0.99901431143632824</v>
       </c>
       <c r="B76">
-        <v>0.98527196824442909</v>
+        <v>0.99566090609937452</v>
       </c>
       <c r="C76">
-        <v>0.99438472031277914</v>
+        <v>0.99727992306563173</v>
       </c>
       <c r="D76">
-        <v>0.065046212633986536</v>
+        <v>0.0046871762330506139</v>
       </c>
       <c r="E76">
-        <v>0.034681205623591185</v>
+        <v>0.010301262560227507</v>
       </c>
       <c r="F76">
-        <v>0.02005316951064022</v>
+        <v>0.0097604222856006086</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B77">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C77">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D77">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E77">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F77">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B78">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C78">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D78">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E78">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F78">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="79">
@@ -1100,67 +1100,67 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.72687224669603523</v>
+        <v>0.98046013236684515</v>
       </c>
       <c r="B81">
-        <v>0.85821697099892591</v>
+        <v>0.9579885423297263</v>
       </c>
       <c r="C81">
-        <v>0.87700534759358284</v>
+        <v>0.94019760790431628</v>
       </c>
       <c r="D81">
-        <v>0.27312775330396477</v>
+        <v>0.019539867633154743</v>
       </c>
       <c r="E81">
-        <v>0.14178302900107412</v>
+        <v>0.042011457670273714</v>
       </c>
       <c r="F81">
-        <v>0.12299465240641712</v>
+        <v>0.059802392095683818</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.029573248394668208</v>
+        <v>0.0024572013324688424</v>
       </c>
       <c r="B82">
-        <v>0.011432358474446274</v>
+        <v>0.0035789937694658456</v>
       </c>
       <c r="C82">
-        <v>0.010740844522400291</v>
+        <v>0.0054072843337963968</v>
       </c>
       <c r="D82">
-        <v>0.029573248394668208</v>
+        <v>0.0024572013324688424</v>
       </c>
       <c r="E82">
-        <v>0.011432358474446274</v>
+        <v>0.0035789937694658456</v>
       </c>
       <c r="F82">
-        <v>0.010740844522400291</v>
+        <v>0.0054072843337963968</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>24.578708331110619</v>
+        <v>399.01497667744633</v>
       </c>
       <c r="B83">
-        <v>75.069109573253968</v>
+        <v>267.66979884200896</v>
       </c>
       <c r="C83">
-        <v>81.651433066046806</v>
+        <v>173.87611781905568</v>
       </c>
       <c r="D83">
-        <v>9.2356358577506583</v>
+        <v>7.9520824667314924</v>
       </c>
       <c r="E83">
-        <v>12.401905461413671</v>
+        <v>11.738343337921988</v>
       </c>
       <c r="F83">
-        <v>11.4511156129212</v>
+        <v>11.059598201986393</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>2.1582237101086991e-117</v>
+        <v>0</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1169,93 +1169,93 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>6.1113936988685656e-20</v>
+        <v>2.0773343000112549e-15</v>
       </c>
       <c r="E84">
-        <v>3.9265560171641309e-34</v>
+        <v>1.4452680569538103e-31</v>
       </c>
       <c r="F84">
-        <v>1.7237146052146875e-29</v>
+        <v>3.1111830962255499e-28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.66887615851297655</v>
+        <v>0.97564339829982594</v>
       </c>
       <c r="B85">
-        <v>0.83579697636810735</v>
+        <v>0.9509728122846367</v>
       </c>
       <c r="C85">
-        <v>0.85594148075797483</v>
+        <v>0.92959796744486412</v>
       </c>
       <c r="D85">
-        <v>0.21513166512090603</v>
+        <v>0.014723133566135511</v>
       </c>
       <c r="E85">
-        <v>0.11936303437025556</v>
+        <v>0.034995727625184173</v>
       </c>
       <c r="F85">
-        <v>0.10193078557080906</v>
+        <v>0.049202751636231661</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.78486833487909391</v>
+        <v>0.98527686643386436</v>
       </c>
       <c r="B86">
-        <v>0.88063696562974447</v>
+        <v>0.9650042723748159</v>
       </c>
       <c r="C86">
-        <v>0.89806921442919085</v>
+        <v>0.95079724836376844</v>
       </c>
       <c r="D86">
-        <v>0.33112384148702351</v>
+        <v>0.024356601700173973</v>
       </c>
       <c r="E86">
-        <v>0.16420302363189268</v>
+        <v>0.049027187715363255</v>
       </c>
       <c r="F86">
-        <v>0.14405851924202517</v>
+        <v>0.070402032555135982</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B87">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C87">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D87">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E87">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F87">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B88">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C88">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D88">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E88">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F88">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="89">
@@ -1280,116 +1280,116 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.80880236091479107</v>
+        <v>0.9395702273597456</v>
       </c>
       <c r="B91">
-        <v>0.61415323742182015</v>
+        <v>0.89861100576818997</v>
       </c>
       <c r="C91">
-        <v>0.67251733649981738</v>
+        <v>0.92656344755970932</v>
       </c>
       <c r="D91">
-        <v>0.63295003553660267</v>
+        <v>0.93262272913934052</v>
       </c>
       <c r="E91">
-        <v>0.70021047358834243</v>
+        <v>0.95995490665078242</v>
       </c>
       <c r="F91">
-        <v>0.77561499999999994</v>
+        <v>0.9212224658348187</v>
       </c>
       <c r="G91">
-        <v>0.19119763908520895</v>
+        <v>0.060429772640254398</v>
       </c>
       <c r="H91">
-        <v>0.38584676257817985</v>
+        <v>0.10138899423180998</v>
       </c>
       <c r="I91">
-        <v>0.32748266350018274</v>
+        <v>0.073436552440290764</v>
       </c>
       <c r="J91">
-        <v>0.36704996446339727</v>
+        <v>0.067377270860659588</v>
       </c>
       <c r="K91">
-        <v>0.29978952641165751</v>
+        <v>0.040045093349217575</v>
       </c>
       <c r="L91">
-        <v>0.224385</v>
+        <v>0.078777534165181226</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.012687798139684691</v>
+        <v>0.0044126976636625903</v>
       </c>
       <c r="B92">
-        <v>0.020898872206662891</v>
+        <v>0.0064364966499114301</v>
       </c>
       <c r="C92">
-        <v>0.037358529325097124</v>
+        <v>0.0094243521378202261</v>
       </c>
       <c r="D92">
-        <v>0.041290840088113345</v>
+        <v>0.0094858134690706288</v>
       </c>
       <c r="E92">
-        <v>0.043200398329133867</v>
+        <v>0.0068883172481086228</v>
       </c>
       <c r="F92">
-        <v>0.039759664016432279</v>
+        <v>0.01428911871766932</v>
       </c>
       <c r="G92">
-        <v>0.012687798139684691</v>
+        <v>0.0044126976636625903</v>
       </c>
       <c r="H92">
-        <v>0.020898872206662891</v>
+        <v>0.0064364966499114301</v>
       </c>
       <c r="I92">
-        <v>0.037358529325097124</v>
+        <v>0.0094243521378202261</v>
       </c>
       <c r="J92">
-        <v>0.041290840088113345</v>
+        <v>0.0094858134690706288</v>
       </c>
       <c r="K92">
-        <v>0.043200398329133867</v>
+        <v>0.0068883172481086228</v>
       </c>
       <c r="L92">
-        <v>0.039759664016432279</v>
+        <v>0.01428911871766932</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>63.746471374338157</v>
+        <v>212.92422435755353</v>
       </c>
       <c r="B93">
-        <v>29.386908123492827</v>
+        <v>139.61181907560774</v>
       </c>
       <c r="C93">
-        <v>18.001708007494457</v>
+        <v>98.315877209360693</v>
       </c>
       <c r="D93">
-        <v>15.329066548074763</v>
+        <v>98.317633187732724</v>
       </c>
       <c r="E93">
-        <v>16.208426326387094</v>
+        <v>139.35985699763822</v>
       </c>
       <c r="F93">
-        <v>19.507584361865984</v>
+        <v>64.47020869773263</v>
       </c>
       <c r="G93">
-        <v>15.06941054548969</v>
+        <v>13.694519145935999</v>
       </c>
       <c r="H93">
-        <v>18.46256385333395</v>
+        <v>15.752201818236813</v>
       </c>
       <c r="I93">
-        <v>8.7659409890148652</v>
+        <v>7.7922122779758549</v>
       </c>
       <c r="J93">
-        <v>8.8893799128359774</v>
+        <v>7.1029512735359388</v>
       </c>
       <c r="K93">
-        <v>6.9395083843354932</v>
+        <v>5.8134798248749444</v>
       </c>
       <c r="L93">
-        <v>5.6435336049938423</v>
+        <v>5.5131135601643688</v>
       </c>
     </row>
     <row r="94">
@@ -1397,189 +1397,189 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>3.5086966091319086e-159</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>1.8088660895922994e-67</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>2.4121593752632356e-50</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>9.539288386687398e-56</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>5.3843931571466466e-78</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>8.5584150181372016e-49</v>
+        <v>3.1696553066222571e-42</v>
       </c>
       <c r="H94">
-        <v>1.2580200009555063e-70</v>
+        <v>4.2068804441362489e-55</v>
       </c>
       <c r="I94">
-        <v>3.7576136821160206e-18</v>
+        <v>7.387250121117357e-15</v>
       </c>
       <c r="J94">
-        <v>1.2971049379563537e-18</v>
+        <v>1.3228984148056826e-12</v>
       </c>
       <c r="K94">
-        <v>5.2295542411721537e-12</v>
+        <v>6.3468552540623856e-09</v>
       </c>
       <c r="L94">
-        <v>1.8926566825550076e-08</v>
+        <v>3.6320252523539965e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.78392032394888689</v>
+        <v>0.93092022750700076</v>
       </c>
       <c r="B95">
-        <v>0.57316846566970447</v>
+        <v>0.88599384970685335</v>
       </c>
       <c r="C95">
-        <v>0.59925353631754363</v>
+        <v>0.90808934150987475</v>
       </c>
       <c r="D95">
-        <v>0.55197458194610216</v>
+        <v>0.91402814338598048</v>
       </c>
       <c r="E95">
-        <v>0.61549018592824822</v>
+        <v>0.9464520683139398</v>
       </c>
       <c r="F95">
-        <v>0.69764233532507269</v>
+        <v>0.89321219089087378</v>
       </c>
       <c r="G95">
-        <v>0.16631560211930474</v>
+        <v>0.051779772787509615</v>
       </c>
       <c r="H95">
-        <v>0.34486199082606422</v>
+        <v>0.088771838170473419</v>
       </c>
       <c r="I95">
-        <v>0.25421886331790899</v>
+        <v>0.054962446390456193</v>
       </c>
       <c r="J95">
-        <v>0.28607451087289681</v>
+        <v>0.048782685107299578</v>
       </c>
       <c r="K95">
-        <v>0.21506923875156328</v>
+        <v>0.026542255012374991</v>
       </c>
       <c r="L95">
-        <v>0.14641233532507281</v>
+        <v>0.050767259221236351</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.83368439788069526</v>
+        <v>0.94822022721249044</v>
       </c>
       <c r="B96">
-        <v>0.65513800917393583</v>
+        <v>0.9112281618295266</v>
       </c>
       <c r="C96">
-        <v>0.74578113668209112</v>
+        <v>0.94503755360954389</v>
       </c>
       <c r="D96">
-        <v>0.71392548912710319</v>
+        <v>0.95121731489270056</v>
       </c>
       <c r="E96">
-        <v>0.78493076124843664</v>
+        <v>0.97345774498762505</v>
       </c>
       <c r="F96">
-        <v>0.85358766467492719</v>
+        <v>0.94923274077876363</v>
       </c>
       <c r="G96">
-        <v>0.21607967605111317</v>
+        <v>0.069079772492999181</v>
       </c>
       <c r="H96">
-        <v>0.42683153433029547</v>
+        <v>0.11400615029314655</v>
       </c>
       <c r="I96">
-        <v>0.40074646368245648</v>
+        <v>0.091910658490125335</v>
       </c>
       <c r="J96">
-        <v>0.44802541805389773</v>
+        <v>0.085971856614019598</v>
       </c>
       <c r="K96">
-        <v>0.38450981407175178</v>
+        <v>0.05354793168606016</v>
       </c>
       <c r="L96">
-        <v>0.3023576646749272</v>
+        <v>0.10678780910912611</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B97">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C97">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D97">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E97">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F97">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="G97">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="H97">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="I97">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="J97">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="K97">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="L97">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B98">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C98">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D98">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E98">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F98">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="G98">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="H98">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="I98">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="J98">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="K98">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="L98">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="99">
@@ -1622,306 +1622,306 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.36256338663228693</v>
+        <v>0.80619834163576676</v>
       </c>
       <c r="B101">
-        <v>0.56579644169374732</v>
+        <v>0.884710521259786</v>
       </c>
       <c r="C101">
-        <v>0.47669491231275118</v>
+        <v>0.88618491952232614</v>
       </c>
       <c r="D101">
-        <v>0.49251825566047314</v>
+        <v>0.89979327082587179</v>
       </c>
       <c r="E101">
-        <v>0.45647327868852461</v>
+        <v>0.92510075730161589</v>
       </c>
       <c r="F101">
-        <v>0.38130928571428568</v>
+        <v>0.78811805924794154</v>
       </c>
       <c r="G101">
-        <v>0.63743661336771307</v>
+        <v>0.19380165836423324</v>
       </c>
       <c r="H101">
-        <v>0.43420355830625279</v>
+        <v>0.11528947874021393</v>
       </c>
       <c r="I101">
-        <v>0.52330508768724882</v>
+        <v>0.11381508047767394</v>
       </c>
       <c r="J101">
-        <v>0.50748174433952686</v>
+        <v>0.10020672917412825</v>
       </c>
       <c r="K101">
-        <v>0.54352672131147539</v>
+        <v>0.07489924269838405</v>
       </c>
       <c r="L101">
-        <v>0.61869071428571432</v>
+        <v>0.21188194075205841</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.015306450527548733</v>
+        <v>0.0068609508463059439</v>
       </c>
       <c r="B102">
-        <v>0.021275823521986821</v>
+        <v>0.0067811025560865004</v>
       </c>
       <c r="C102">
-        <v>0.039719344485670091</v>
+        <v>0.011459758163690091</v>
       </c>
       <c r="D102">
-        <v>0.042596382058767084</v>
+        <v>0.011542397142453833</v>
       </c>
       <c r="E102">
-        <v>0.046214750572318303</v>
+        <v>0.0091565456239948457</v>
       </c>
       <c r="F102">
-        <v>0.046592860045663889</v>
+        <v>0.020971510263205012</v>
       </c>
       <c r="G102">
-        <v>0.015306450527548733</v>
+        <v>0.0068609508463059439</v>
       </c>
       <c r="H102">
-        <v>0.021275823521986821</v>
+        <v>0.0067811025560865004</v>
       </c>
       <c r="I102">
-        <v>0.039719344485670091</v>
+        <v>0.011459758163690091</v>
       </c>
       <c r="J102">
-        <v>0.042596382058767084</v>
+        <v>0.011542397142453833</v>
       </c>
       <c r="K102">
-        <v>0.046214750572318303</v>
+        <v>0.0091565456239948457</v>
       </c>
       <c r="L102">
-        <v>0.046592860045663889</v>
+        <v>0.020971510263205012</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>23.68696687581102</v>
+        <v>117.50533704374782</v>
       </c>
       <c r="B103">
-        <v>26.593397952800419</v>
+        <v>130.46706106305649</v>
       </c>
       <c r="C103">
-        <v>12.001580551882792</v>
+        <v>77.330158879807527</v>
       </c>
       <c r="D103">
-        <v>11.562443377960646</v>
+        <v>77.955493968957484</v>
       </c>
       <c r="E103">
-        <v>9.8772204336410034</v>
+        <v>101.03163302953217</v>
       </c>
       <c r="F103">
-        <v>8.1838566110897464</v>
+        <v>37.580415018116859</v>
       </c>
       <c r="G103">
-        <v>41.644966102392388</v>
+        <v>28.247055358016368</v>
       </c>
       <c r="H103">
-        <v>20.408307949045497</v>
+        <v>17.00158311818095</v>
       </c>
       <c r="I103">
-        <v>13.17506858342152</v>
+        <v>9.9317174805916668</v>
       </c>
       <c r="J103">
-        <v>11.913728814794453</v>
+        <v>8.6816220181473494</v>
       </c>
       <c r="K103">
-        <v>11.760892671290037</v>
+        <v>8.1798579698122857</v>
       </c>
       <c r="L103">
-        <v>13.278659298428108</v>
+        <v>10.103322941114548</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>4.5241738394303457e-110</v>
+        <v>0</v>
       </c>
       <c r="B104">
-        <v>1.8413188710625007e-134</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>3.8673160305498782e-32</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>5.1212923299965638e-30</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>1.6129625120148414e-22</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>4.72222479047862e-16</v>
+        <v>2.0768222948872969e-285</v>
       </c>
       <c r="G104">
-        <v>1.580820560703696e-276</v>
+        <v>1.2520997585765471e-167</v>
       </c>
       <c r="H104">
-        <v>1.4380852015989744e-84</v>
+        <v>9.6976372732924032e-64</v>
       </c>
       <c r="I104">
-        <v>3.8700254271457381e-38</v>
+        <v>4.0857118978565447e-23</v>
       </c>
       <c r="J104">
-        <v>1.0407960504150248e-31</v>
+        <v>4.6521847432542608e-18</v>
       </c>
       <c r="K104">
-        <v>5.739662892742777e-31</v>
+        <v>3.2662175933912477e-16</v>
       </c>
       <c r="L104">
-        <v>1.0852147891647462e-38</v>
+        <v>7.3530725624333929e-24</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.33254591128705602</v>
+        <v>0.79274914834547083</v>
       </c>
       <c r="B105">
-        <v>0.52407243083497379</v>
+        <v>0.87141785074790912</v>
       </c>
       <c r="C105">
-        <v>0.39880131825699899</v>
+        <v>0.86372090454013184</v>
       </c>
       <c r="D105">
-        <v>0.40898250411939752</v>
+        <v>0.87716726261218469</v>
       </c>
       <c r="E105">
-        <v>0.36584154578651895</v>
+        <v>0.90715161953234802</v>
       </c>
       <c r="F105">
-        <v>0.28993604244228788</v>
+        <v>0.74700861225764126</v>
       </c>
       <c r="G105">
-        <v>0.60741913802248215</v>
+        <v>0.18035246507393726</v>
       </c>
       <c r="H105">
-        <v>0.39247954744747926</v>
+        <v>0.10199680822833711</v>
       </c>
       <c r="I105">
-        <v>0.44541149363149662</v>
+        <v>0.091351065495479666</v>
       </c>
       <c r="J105">
-        <v>0.42394599279845124</v>
+        <v>0.077580720960441191</v>
       </c>
       <c r="K105">
-        <v>0.45289498840946973</v>
+        <v>0.056950104929116174</v>
       </c>
       <c r="L105">
-        <v>0.52731747101371651</v>
+        <v>0.17077249376175815</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.39258086197751785</v>
+        <v>0.81964753492606268</v>
       </c>
       <c r="B106">
-        <v>0.60752045255252085</v>
+        <v>0.89800319177166288</v>
       </c>
       <c r="C106">
-        <v>0.55458850636850332</v>
+        <v>0.90864893450452044</v>
       </c>
       <c r="D106">
-        <v>0.57605400720154876</v>
+        <v>0.92241927903955889</v>
       </c>
       <c r="E106">
-        <v>0.54710501159053027</v>
+        <v>0.94304989507088377</v>
       </c>
       <c r="F106">
-        <v>0.47268252898628349</v>
+        <v>0.82922750623824182</v>
       </c>
       <c r="G106">
-        <v>0.66745408871294398</v>
+        <v>0.20725085165452922</v>
       </c>
       <c r="H106">
-        <v>0.47592756916502632</v>
+        <v>0.12858214925209077</v>
       </c>
       <c r="I106">
-        <v>0.60119868174300095</v>
+        <v>0.13627909545986822</v>
       </c>
       <c r="J106">
-        <v>0.59101749588060248</v>
+        <v>0.12283273738781531</v>
       </c>
       <c r="K106">
-        <v>0.63415845421348105</v>
+        <v>0.092848380467651925</v>
       </c>
       <c r="L106">
-        <v>0.71006395755771212</v>
+        <v>0.25299138774235869</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B107">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C107">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D107">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E107">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F107">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="G107">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="H107">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="I107">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="J107">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="K107">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="L107">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B108">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C108">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D108">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E108">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F108">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="G108">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="H108">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="I108">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="J108">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="K108">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="L108">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="109">
@@ -1964,116 +1964,116 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.97991055283037432</v>
+        <v>0.99333346639984865</v>
       </c>
       <c r="B111">
-        <v>0.97534950928360298</v>
+        <v>0.99347737548292536</v>
       </c>
       <c r="C111">
-        <v>0.99061304347826096</v>
+        <v>0.9976429906542057</v>
       </c>
       <c r="D111">
-        <v>0.98066567164179097</v>
+        <v>0.99692439024390256</v>
       </c>
       <c r="E111">
-        <v>0.97933888888888876</v>
+        <v>0.99745554055140262</v>
       </c>
       <c r="F111">
-        <v>0.96766714285714284</v>
+        <v>0.9886260634920635</v>
       </c>
       <c r="G111">
-        <v>0.020089447169625706</v>
+        <v>0.0066665336001513285</v>
       </c>
       <c r="H111">
-        <v>0.024650490716396953</v>
+        <v>0.006522624517074473</v>
       </c>
       <c r="I111">
-        <v>0.0093869565217391312</v>
+        <v>0.0023570093457943929</v>
       </c>
       <c r="J111">
-        <v>0.019334328358208957</v>
+        <v>0.0030756097560975608</v>
       </c>
       <c r="K111">
-        <v>0.020661111111111109</v>
+        <v>0.0025444594485973795</v>
       </c>
       <c r="L111">
-        <v>0.032332857142857142</v>
+        <v>0.011373936507936508</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.0045996264329506049</v>
+        <v>0.0015625363761943125</v>
       </c>
       <c r="B112">
-        <v>0.0066020687184366236</v>
+        <v>0.001750410043776801</v>
       </c>
       <c r="C112">
-        <v>0.006565036568448381</v>
+        <v>0.0016614571002979239</v>
       </c>
       <c r="D112">
-        <v>0.010909906994426602</v>
+        <v>0.0017684710798667169</v>
       </c>
       <c r="E112">
-        <v>0.014156201741651712</v>
+        <v>0.0018731383811629605</v>
       </c>
       <c r="F112">
-        <v>0.016941783040220117</v>
+        <v>0.0057419542526436313</v>
       </c>
       <c r="G112">
-        <v>0.0045996264329506049</v>
+        <v>0.0015625363761943125</v>
       </c>
       <c r="H112">
-        <v>0.0066020687184366236</v>
+        <v>0.001750410043776801</v>
       </c>
       <c r="I112">
-        <v>0.006565036568448381</v>
+        <v>0.0016614571002979239</v>
       </c>
       <c r="J112">
-        <v>0.010909906994426602</v>
+        <v>0.0017684710798667169</v>
       </c>
       <c r="K112">
-        <v>0.014156201741651712</v>
+        <v>0.0018731383811629605</v>
       </c>
       <c r="L112">
-        <v>0.016941783040220117</v>
+        <v>0.0057419542526436313</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>213.04133435935873</v>
+        <v>635.71861848054709</v>
       </c>
       <c r="B113">
-        <v>147.73392263547458</v>
+        <v>567.56837005992759</v>
       </c>
       <c r="C113">
-        <v>150.89223542777435</v>
+        <v>600.46268451668925</v>
       </c>
       <c r="D113">
-        <v>89.887628936045971</v>
+        <v>563.72105916430201</v>
       </c>
       <c r="E113">
-        <v>69.180907899001284</v>
+        <v>532.5049930011686</v>
       </c>
       <c r="F113">
-        <v>57.117196021214681</v>
+        <v>172.1758864652908</v>
       </c>
       <c r="G113">
-        <v>4.3676258197208782</v>
+        <v>4.266482177130638</v>
       </c>
       <c r="H113">
-        <v>3.7337525202606816</v>
+        <v>3.7263408881046094</v>
       </c>
       <c r="I113">
-        <v>1.4298407059684817</v>
+        <v>1.4186399067250945</v>
       </c>
       <c r="J113">
-        <v>1.7721808598447288</v>
+        <v>1.7391348895167447</v>
       </c>
       <c r="K113">
-        <v>1.459509513086412</v>
+        <v>1.3583937386503293</v>
       </c>
       <c r="L113">
-        <v>1.9084683746745146</v>
+        <v>1.9808476360987859</v>
       </c>
     </row>
     <row r="114">
@@ -2096,174 +2096,174 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>1.3174424273990685e-05</v>
+        <v>2.0080134654495322e-05</v>
       </c>
       <c r="H114">
-        <v>0.00019369330494591291</v>
+        <v>0.00019557983876621204</v>
       </c>
       <c r="I114">
-        <v>0.15291220674219314</v>
+        <v>0.15604186865917291</v>
       </c>
       <c r="J114">
-        <v>0.076510199621538807</v>
+        <v>0.082048406117261025</v>
       </c>
       <c r="K114">
-        <v>0.14457520459618126</v>
+        <v>0.17437598997859802</v>
       </c>
       <c r="L114">
-        <v>0.056467574109477801</v>
+        <v>0.047641579347455096</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.97089022687042248</v>
+        <v>0.9902705011903149</v>
       </c>
       <c r="B115">
-        <v>0.96240219438348884</v>
+        <v>0.99004613052236645</v>
       </c>
       <c r="C115">
-        <v>0.97773835231591366</v>
+        <v>0.99438611588771875</v>
       </c>
       <c r="D115">
-        <v>0.95927025644513608</v>
+        <v>0.9934577410994575</v>
       </c>
       <c r="E115">
-        <v>0.95157716607814669</v>
+        <v>0.99378371711000646</v>
       </c>
       <c r="F115">
-        <v>0.93444261743246881</v>
+        <v>0.97737038562207557</v>
       </c>
       <c r="G115">
-        <v>0.011069121209673818</v>
+        <v>0.0036035683906176252</v>
       </c>
       <c r="H115">
-        <v>0.011703175816282822</v>
+        <v>0.003091379556515568</v>
       </c>
       <c r="I115">
-        <v>-0.0034877346406082133</v>
+        <v>-0.00089986542069260414</v>
       </c>
       <c r="J115">
-        <v>-0.0020610868384459483</v>
+        <v>-0.00039103938834747064</v>
       </c>
       <c r="K115">
-        <v>-0.0071006116996309813</v>
+        <v>-0.0011273639927987444</v>
       </c>
       <c r="L115">
-        <v>-0.00089166828181690139</v>
+        <v>0.00011825863794852516</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.98893087879032615</v>
+        <v>0.9963964316093824</v>
       </c>
       <c r="B116">
-        <v>0.98829682418371712</v>
+        <v>0.99690862044348427</v>
       </c>
       <c r="C116">
-        <v>1.0034877346406084</v>
+        <v>1.0008998654206926</v>
       </c>
       <c r="D116">
-        <v>1.0020610868384459</v>
+        <v>1.0003910393883475</v>
       </c>
       <c r="E116">
-        <v>1.0071006116996308</v>
+        <v>1.0011273639927987</v>
       </c>
       <c r="F116">
-        <v>1.000891668281817</v>
+        <v>0.99988174136205143</v>
       </c>
       <c r="G116">
-        <v>0.029109773129577594</v>
+        <v>0.0097294988096850322</v>
       </c>
       <c r="H116">
-        <v>0.037597805616511083</v>
+        <v>0.0099538694776333779</v>
       </c>
       <c r="I116">
-        <v>0.022261647684086477</v>
+        <v>0.0056138841122813903</v>
       </c>
       <c r="J116">
-        <v>0.040729743554863862</v>
+        <v>0.0065422589005425923</v>
       </c>
       <c r="K116">
-        <v>0.048422833921853203</v>
+        <v>0.0062162828899935034</v>
       </c>
       <c r="L116">
-        <v>0.065557382567531186</v>
+        <v>0.02262961437792449</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B117">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C117">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D117">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E117">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F117">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="G117">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="H117">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="I117">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="J117">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="K117">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="L117">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B118">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C118">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D118">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E118">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F118">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="G118">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="H118">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="I118">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="J118">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="K118">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="L118">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="119">
@@ -2306,116 +2306,116 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.84872369962254768</v>
+        <v>0.95183068642937807</v>
       </c>
       <c r="B121">
-        <v>0.84470081160082966</v>
+        <v>0.95892290984478135</v>
       </c>
       <c r="C121">
-        <v>0.86017470770917048</v>
+        <v>0.96907843457943932</v>
       </c>
       <c r="D121">
-        <v>0.89386603716113311</v>
+        <v>0.98032201981484945</v>
       </c>
       <c r="E121">
-        <v>0.86397735883424409</v>
+        <v>0.98319624485585211</v>
       </c>
       <c r="F121">
-        <v>0.87540857142857154</v>
+        <v>0.95642540904846773</v>
       </c>
       <c r="G121">
-        <v>0.15127630037745229</v>
+        <v>0.048169313570621999</v>
       </c>
       <c r="H121">
-        <v>0.15529918839917042</v>
+        <v>0.04107709015521871</v>
       </c>
       <c r="I121">
-        <v>0.13982529229082938</v>
+        <v>0.030921565420560748</v>
       </c>
       <c r="J121">
-        <v>0.10613396283886689</v>
+        <v>0.019677980185150483</v>
       </c>
       <c r="K121">
-        <v>0.13602264116575591</v>
+        <v>0.016803755144147926</v>
       </c>
       <c r="L121">
-        <v>0.12459142857142858</v>
+        <v>0.043574590951532134</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.01149892581384538</v>
+        <v>0.0039757138903529568</v>
       </c>
       <c r="B122">
-        <v>0.015306976988289183</v>
+        <v>0.0043068872423847656</v>
       </c>
       <c r="C122">
-        <v>0.027269513908216601</v>
+        <v>0.0062767150635475227</v>
       </c>
       <c r="D122">
-        <v>0.025715200197118902</v>
+        <v>0.0052690820089809224</v>
       </c>
       <c r="E122">
-        <v>0.031583237092250895</v>
+        <v>0.0043770517994139464</v>
       </c>
       <c r="F122">
-        <v>0.031544857426746183</v>
+        <v>0.010899844935419007</v>
       </c>
       <c r="G122">
-        <v>0.01149892581384538</v>
+        <v>0.0039757138903529568</v>
       </c>
       <c r="H122">
-        <v>0.015306976988289183</v>
+        <v>0.0043068872423847656</v>
       </c>
       <c r="I122">
-        <v>0.027269513908216601</v>
+        <v>0.0062767150635475227</v>
       </c>
       <c r="J122">
-        <v>0.025715200197118902</v>
+        <v>0.0052690820089809224</v>
       </c>
       <c r="K122">
-        <v>0.031583237092250895</v>
+        <v>0.0043770517994139464</v>
       </c>
       <c r="L122">
-        <v>0.031544857426746183</v>
+        <v>0.010899844935419007</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>73.808955146108914</v>
+        <v>239.41126365732424</v>
       </c>
       <c r="B123">
-        <v>55.184038771801895</v>
+        <v>222.6487149252174</v>
       </c>
       <c r="C123">
-        <v>31.543455838792582</v>
+        <v>154.39261218139924</v>
       </c>
       <c r="D123">
-        <v>34.76022081528577</v>
+        <v>186.05176729911074</v>
       </c>
       <c r="E123">
-        <v>27.355567015207104</v>
+        <v>224.62522490309448</v>
       </c>
       <c r="F123">
-        <v>27.751229291857001</v>
+        <v>87.746698665461452</v>
       </c>
       <c r="G123">
-        <v>13.155689742367654</v>
+        <v>12.115890353051944</v>
       </c>
       <c r="H123">
-        <v>10.145647211594049</v>
+        <v>9.5375355432973734</v>
       </c>
       <c r="I123">
-        <v>5.12753152701774</v>
+        <v>4.9263930427780576</v>
       </c>
       <c r="J123">
-        <v>4.127285108624509</v>
+        <v>3.7346126235291495</v>
       </c>
       <c r="K123">
-        <v>4.3067985959909647</v>
+        <v>3.8390578668495126</v>
       </c>
       <c r="L123">
-        <v>3.9496589534682847</v>
+        <v>3.9977257667158788</v>
       </c>
     </row>
     <row r="124">
@@ -2426,186 +2426,186 @@
         <v>0</v>
       </c>
       <c r="C124">
-        <v>5.8857657959049268e-179</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>2.528369202141084e-209</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>4.2985289938015173e-141</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.4313862919677005e-144</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>4.9047081688523767e-38</v>
+        <v>1.6756714619657446e-33</v>
       </c>
       <c r="H124">
-        <v>1.2107511163434379e-23</v>
+        <v>1.8871976376329406e-21</v>
       </c>
       <c r="I124">
-        <v>3.2062080053412078e-07</v>
+        <v>8.5393265696172891e-07</v>
       </c>
       <c r="J124">
-        <v>3.8147914114408997e-05</v>
+        <v>0.0001892731249527185</v>
       </c>
       <c r="K124">
-        <v>1.7330088865096785e-05</v>
+        <v>0.00012443228163381702</v>
       </c>
       <c r="L124">
-        <v>8.0856456851385023e-05</v>
+        <v>6.4512387456623827e-05</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.82617315980324046</v>
+        <v>0.94403728493502681</v>
       </c>
       <c r="B125">
-        <v>0.81468230381360518</v>
+        <v>0.95048032509232971</v>
       </c>
       <c r="C125">
-        <v>0.80669647250741261</v>
+        <v>0.95677449070798393</v>
       </c>
       <c r="D125">
-        <v>0.84343596609237625</v>
+        <v>0.96999329075255625</v>
       </c>
       <c r="E125">
-        <v>0.80203948244461909</v>
+        <v>0.97461611988328345</v>
       </c>
       <c r="F125">
-        <v>0.81354596138897151</v>
+        <v>0.9350589651466531</v>
       </c>
       <c r="G125">
-        <v>0.12872576055814514</v>
+        <v>0.040375912076270712</v>
       </c>
       <c r="H125">
-        <v>0.12528068061194597</v>
+        <v>0.032634505402767106</v>
       </c>
       <c r="I125">
-        <v>0.086347057089071449</v>
+        <v>0.018617621549105318</v>
       </c>
       <c r="J125">
-        <v>0.055703891770110044</v>
+        <v>0.0093492511228572689</v>
       </c>
       <c r="K125">
-        <v>0.074084764776130949</v>
+        <v>0.0082236301715792326</v>
       </c>
       <c r="L125">
-        <v>0.062728818531828545</v>
+        <v>0.022208147049717467</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.87127423944185489</v>
+        <v>0.95962408792372933</v>
       </c>
       <c r="B126">
-        <v>0.87471931938805414</v>
+        <v>0.96736549459723298</v>
       </c>
       <c r="C126">
-        <v>0.91365294291092836</v>
+        <v>0.98138237845089471</v>
       </c>
       <c r="D126">
-        <v>0.94429610822988996</v>
+        <v>0.99065074887714266</v>
       </c>
       <c r="E126">
-        <v>0.92591523522386909</v>
+        <v>0.99177636982842077</v>
       </c>
       <c r="F126">
-        <v>0.93727118146817157</v>
+        <v>0.97779185295028237</v>
       </c>
       <c r="G126">
-        <v>0.17382684019675945</v>
+        <v>0.055962715064973287</v>
       </c>
       <c r="H126">
-        <v>0.18531769618639488</v>
+        <v>0.049519674907670314</v>
       </c>
       <c r="I126">
-        <v>0.19330352749258731</v>
+        <v>0.043225509292016177</v>
       </c>
       <c r="J126">
-        <v>0.15656403390762375</v>
+        <v>0.030006709247443697</v>
       </c>
       <c r="K126">
-        <v>0.19796051755538085</v>
+        <v>0.02538388011671662</v>
       </c>
       <c r="L126">
-        <v>0.18645403861102861</v>
+        <v>0.064941034853346805</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B127">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C127">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D127">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E127">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F127">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="G127">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="H127">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="I127">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="J127">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="K127">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="L127">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B128">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C128">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D128">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E128">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F128">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="G128">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="H128">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="I128">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="J128">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="K128">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="L128">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="129">
@@ -2648,162 +2648,162 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.60240794176287848</v>
+        <v>0.91026089710547742</v>
       </c>
       <c r="B131">
-        <v>0.7323306692909487</v>
+        <v>0.92358408153602201</v>
       </c>
       <c r="C131">
-        <v>0.82463464966783584</v>
+        <v>0.96226519917720255</v>
       </c>
       <c r="D131">
-        <v>0.39759205823712152</v>
+        <v>0.089739102894522485</v>
       </c>
       <c r="E131">
-        <v>0.2676693307090513</v>
+        <v>0.076415918463978078</v>
       </c>
       <c r="F131">
-        <v>0.17536535033216422</v>
+        <v>0.03773480082279751</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.025477942726284074</v>
+        <v>0.0069854058727835278</v>
       </c>
       <c r="B132">
-        <v>0.012345115145005411</v>
+        <v>0.00389009147644613</v>
       </c>
       <c r="C132">
-        <v>0.018234870753919028</v>
+        <v>0.0042216188831696111</v>
       </c>
       <c r="D132">
-        <v>0.025477942726284074</v>
+        <v>0.0069854058727835278</v>
       </c>
       <c r="E132">
-        <v>0.012345115145005411</v>
+        <v>0.00389009147644613</v>
       </c>
       <c r="F132">
-        <v>0.018234870753919028</v>
+        <v>0.0042216188831696111</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>23.644292957037308</v>
+        <v>130.30894892622163</v>
       </c>
       <c r="B133">
-        <v>59.321493618245853</v>
+        <v>237.41963065089166</v>
       </c>
       <c r="C133">
-        <v>45.222950071670006</v>
+        <v>227.93748697057404</v>
       </c>
       <c r="D133">
-        <v>15.605343905061435</v>
+        <v>12.84665551706353</v>
       </c>
       <c r="E133">
-        <v>21.682206084351105</v>
+        <v>19.643733039869115</v>
       </c>
       <c r="F133">
-        <v>9.6170328103079523</v>
+        <v>8.938466940546288</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1.0047496061091232e-109</v>
+        <v>0</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134">
-        <v>5.220149819003213e-312</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>5.132027347890241e-52</v>
+        <v>2.0511524556036107e-37</v>
       </c>
       <c r="E134">
-        <v>3.389122565473621e-94</v>
+        <v>5.3639138901552932e-84</v>
       </c>
       <c r="F134">
-        <v>1.8706398271043062e-21</v>
+        <v>4.8069522521047234e-19</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.55244315624601614</v>
+        <v>0.89656774058843025</v>
       </c>
       <c r="B135">
-        <v>0.70812066783879746</v>
+        <v>0.91595852155816182</v>
       </c>
       <c r="C135">
-        <v>0.78887425033200798</v>
+        <v>0.9539897619047899</v>
       </c>
       <c r="D135">
-        <v>0.34762727272025917</v>
+        <v>0.076045946377475346</v>
       </c>
       <c r="E135">
-        <v>0.24345932925690003</v>
+        <v>0.06879035848611785</v>
       </c>
       <c r="F135">
-        <v>0.1396049509963363</v>
+        <v>0.029459363550384834</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.65237272727974083</v>
+        <v>0.92395405362252458</v>
       </c>
       <c r="B136">
-        <v>0.75654067074309994</v>
+        <v>0.93120964151388219</v>
       </c>
       <c r="C136">
-        <v>0.8603950490036637</v>
+        <v>0.97054063644961519</v>
       </c>
       <c r="D136">
-        <v>0.44755684375398386</v>
+        <v>0.10343225941156962</v>
       </c>
       <c r="E136">
-        <v>0.2918793321612026</v>
+        <v>0.084041478441838305</v>
       </c>
       <c r="F136">
-        <v>0.21112574966799214</v>
+        <v>0.046010238095210182</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B137">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C137">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D137">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E137">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F137">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B138">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C138">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D138">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E138">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F138">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="139">
@@ -2828,162 +2828,162 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.56978994806880878</v>
+        <v>0.90348351965588591</v>
       </c>
       <c r="B141">
-        <v>0.44344465079718753</v>
+        <v>0.8423477481660171</v>
       </c>
       <c r="C141">
-        <v>0.3166911563159544</v>
+        <v>0.85082370660244833</v>
       </c>
       <c r="D141">
-        <v>0.43021005193119111</v>
+        <v>0.096516480344114058</v>
       </c>
       <c r="E141">
-        <v>0.55655534920281247</v>
+        <v>0.15765225183398296</v>
       </c>
       <c r="F141">
-        <v>0.68330884368404554</v>
+        <v>0.14917629339755167</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.025117657112238456</v>
+        <v>0.0069726009590753771</v>
       </c>
       <c r="B142">
-        <v>0.013782367801396926</v>
+        <v>0.0051635223181135574</v>
       </c>
       <c r="C142">
-        <v>0.022138129961572616</v>
+        <v>0.0075389655641494527</v>
       </c>
       <c r="D142">
-        <v>0.025117657112238456</v>
+        <v>0.0069726009590753771</v>
       </c>
       <c r="E142">
-        <v>0.013782367801396926</v>
+        <v>0.0051635223181135574</v>
       </c>
       <c r="F142">
-        <v>0.022138129961572616</v>
+        <v>0.0075389655641494527</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>22.684836627982367</v>
+        <v>129.57625496694064</v>
       </c>
       <c r="B143">
-        <v>32.174779920779777</v>
+        <v>163.13432890782209</v>
       </c>
       <c r="C143">
-        <v>14.305235214793083</v>
+        <v>112.85682357383713</v>
       </c>
       <c r="D143">
-        <v>17.127793806914156</v>
+        <v>13.842249242514075</v>
       </c>
       <c r="E143">
-        <v>40.381693278160974</v>
+        <v>30.531920290329968</v>
       </c>
       <c r="F143">
-        <v>30.865698451952969</v>
+        <v>19.787368986925696</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>4.9689780079477187e-102</v>
+        <v>0</v>
       </c>
       <c r="B144">
-        <v>7.6636900541761322e-185</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>2.348453865952261e-44</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>1.2152729073563526e-61</v>
+        <v>4.2956174850338239e-43</v>
       </c>
       <c r="E144">
-        <v>4.7097087031490548e-264</v>
+        <v>4.7380779145649336e-194</v>
       </c>
       <c r="F144">
-        <v>1.1011326159226536e-172</v>
+        <v>3.5649190638473779e-85</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.52053171855703662</v>
+        <v>0.88981546399779909</v>
       </c>
       <c r="B145">
-        <v>0.41641605360982964</v>
+        <v>0.83222594270920391</v>
       </c>
       <c r="C145">
-        <v>0.27327607656804076</v>
+        <v>0.83604543353906924</v>
       </c>
       <c r="D145">
-        <v>0.38095182241941894</v>
+        <v>0.082848424686027197</v>
       </c>
       <c r="E145">
-        <v>0.52952675201545463</v>
+        <v>0.1475304463771698</v>
       </c>
       <c r="F145">
-        <v>0.63989376393613184</v>
+        <v>0.13439802033417259</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.61904817758058095</v>
+        <v>0.91715157531397273</v>
       </c>
       <c r="B146">
-        <v>0.47047324798454543</v>
+        <v>0.85246955362283028</v>
       </c>
       <c r="C146">
-        <v>0.36010623606386805</v>
+        <v>0.86560197966582741</v>
       </c>
       <c r="D146">
-        <v>0.47946828144296327</v>
+        <v>0.11018453600220092</v>
       </c>
       <c r="E146">
-        <v>0.58358394639017031</v>
+        <v>0.16777405729079611</v>
       </c>
       <c r="F146">
-        <v>0.72672392343195924</v>
+        <v>0.16395456646093076</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B147">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C147">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D147">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E147">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F147">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B148">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C148">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D148">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E148">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F148">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="149">
@@ -3008,62 +3008,62 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.97867225622478782</v>
+        <v>0.99519044326000583</v>
       </c>
       <c r="B151">
-        <v>0.97902005983858198</v>
+        <v>0.99392678919702848</v>
       </c>
       <c r="C151">
-        <v>0.98150628948022445</v>
+        <v>0.99611023279149113</v>
       </c>
       <c r="D151">
-        <v>0.02132774377521213</v>
+        <v>0.0048095567399941861</v>
       </c>
       <c r="E151">
-        <v>0.020979940161418104</v>
+        <v>0.0060732108029714254</v>
       </c>
       <c r="F151">
-        <v>0.018493710519775445</v>
+        <v>0.0038897672085089303</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.0074440848663705804</v>
+        <v>0.0016956439315872545</v>
       </c>
       <c r="B152">
-        <v>0.0039287652357842297</v>
+        <v>0.0011448676434057824</v>
       </c>
       <c r="C152">
-        <v>0.0064658976009063767</v>
+        <v>0.0013742669863528753</v>
       </c>
       <c r="D152">
-        <v>0.0074440848663705804</v>
+        <v>0.0016956439315872545</v>
       </c>
       <c r="E152">
-        <v>0.0039287652357842297</v>
+        <v>0.0011448676434057824</v>
       </c>
       <c r="F152">
-        <v>0.0064658976009063767</v>
+        <v>0.0013742669863528753</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>131.46978759552306</v>
+        <v>586.91003737348922</v>
       </c>
       <c r="B153">
-        <v>249.19281277522239</v>
+        <v>868.15868622181415</v>
       </c>
       <c r="C153">
-        <v>151.79737602751996</v>
+        <v>724.83021325793277</v>
       </c>
       <c r="D153">
-        <v>2.8650591923746607</v>
+        <v>2.8364190443521164</v>
       </c>
       <c r="E153">
-        <v>5.3400849636744079</v>
+        <v>5.3047274398503204</v>
       </c>
       <c r="F153">
-        <v>2.860192298310297</v>
+        <v>2.8304305110551069</v>
       </c>
     </row>
     <row r="154">
@@ -3077,93 +3077,93 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>0.0042109677931404287</v>
+        <v>0.004573388477476425</v>
       </c>
       <c r="E154">
-        <v>1.0299030084819955e-07</v>
+        <v>1.1577527984637035e-07</v>
       </c>
       <c r="F154">
-        <v>0.0042758808785929962</v>
+        <v>0.0046597991164107205</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.9640736637201498</v>
+        <v>0.99186655368576215</v>
       </c>
       <c r="B155">
-        <v>0.97131535956270165</v>
+        <v>0.99168255999718513</v>
       </c>
       <c r="C155">
-        <v>0.9688260197161358</v>
+        <v>0.99341632304837091</v>
       </c>
       <c r="D155">
-        <v>0.0067291512705741283</v>
+        <v>0.0014856671657505495</v>
       </c>
       <c r="E155">
-        <v>0.013275239885537773</v>
+        <v>0.0038289816031280371</v>
       </c>
       <c r="F155">
-        <v>0.0058134407556868078</v>
+        <v>0.0011958574653887321</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.99327084872942584</v>
+        <v>0.99851433283424951</v>
       </c>
       <c r="B156">
-        <v>0.98672476011446231</v>
+        <v>0.99617101839687183</v>
       </c>
       <c r="C156">
-        <v>0.9941865592443131</v>
+        <v>0.99880414253461136</v>
       </c>
       <c r="D156">
-        <v>0.035926336279850132</v>
+        <v>0.0081334463142378223</v>
       </c>
       <c r="E156">
-        <v>0.028684640437298434</v>
+        <v>0.0083174400028148132</v>
       </c>
       <c r="F156">
-        <v>0.031173980283864082</v>
+        <v>0.006583676951629128</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B157">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C157">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D157">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E157">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F157">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B158">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C158">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D158">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E158">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F158">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="159">
@@ -3188,67 +3188,67 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.84912985394352491</v>
+        <v>0.96554284036311722</v>
       </c>
       <c r="B161">
-        <v>0.84520462007328201</v>
+        <v>0.9557411761262411</v>
       </c>
       <c r="C161">
-        <v>0.87716790453598537</v>
+        <v>0.97299890026088698</v>
       </c>
       <c r="D161">
-        <v>0.15087014605647517</v>
+        <v>0.034457159636882805</v>
       </c>
       <c r="E161">
-        <v>0.15479537992671816</v>
+        <v>0.044258823873758874</v>
       </c>
       <c r="F161">
-        <v>0.12283209546401475</v>
+        <v>0.027001099739112983</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.01835447112598617</v>
+        <v>0.004692421574573496</v>
       </c>
       <c r="B162">
-        <v>0.010018199225838555</v>
+        <v>0.0030316073004848301</v>
       </c>
       <c r="C162">
-        <v>0.015550596346457333</v>
+        <v>0.0036047737281089684</v>
       </c>
       <c r="D162">
-        <v>0.01835447112598617</v>
+        <v>0.004692421574573496</v>
       </c>
       <c r="E162">
-        <v>0.010018199225838555</v>
+        <v>0.0030316073004848301</v>
       </c>
       <c r="F162">
-        <v>0.015550596346457333</v>
+        <v>0.0036047737281089684</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>46.262834168037188</v>
+        <v>205.76643104597383</v>
       </c>
       <c r="B163">
-        <v>84.366920742937779</v>
+        <v>315.25889780427502</v>
       </c>
       <c r="C163">
-        <v>56.407348309559701</v>
+        <v>269.91954936692053</v>
       </c>
       <c r="D163">
-        <v>8.2198035029663128</v>
+        <v>7.3431508847358176</v>
       </c>
       <c r="E163">
-        <v>15.451417608812955</v>
+        <v>14.599128279800876</v>
       </c>
       <c r="F163">
-        <v>7.8988672027357847</v>
+        <v>7.4903729819617597</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>2.3715151000379834e-322</v>
+        <v>0</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3257,93 +3257,93 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>3.5343124256501292e-16</v>
+        <v>2.2852630389627733e-13</v>
       </c>
       <c r="E164">
-        <v>4.4136448168611247e-51</v>
+        <v>1.1177327317927652e-47</v>
       </c>
       <c r="F164">
-        <v>4.5084917024958586e-15</v>
+        <v>7.5787315769729194e-14</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.81313490635541974</v>
+        <v>0.9563445111271669</v>
       </c>
       <c r="B165">
-        <v>0.82555793270288358</v>
+        <v>0.94979846155535252</v>
       </c>
       <c r="C165">
-        <v>0.84667163490160557</v>
+        <v>0.96593263499778259</v>
       </c>
       <c r="D165">
-        <v>0.11487519846836994</v>
+        <v>0.025258830400932505</v>
       </c>
       <c r="E165">
-        <v>0.13514869255631973</v>
+        <v>0.038316109302870265</v>
       </c>
       <c r="F165">
-        <v>0.092335825829634982</v>
+        <v>0.019934834476008599</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.88512480153163009</v>
+        <v>0.97474116959906754</v>
       </c>
       <c r="B166">
-        <v>0.86485130744368044</v>
+        <v>0.96168389069712967</v>
       </c>
       <c r="C166">
-        <v>0.90766417417036516</v>
+        <v>0.98006516552399137</v>
       </c>
       <c r="D166">
-        <v>0.1868650936445804</v>
+        <v>0.043655488872833104</v>
       </c>
       <c r="E166">
-        <v>0.17444206729711659</v>
+        <v>0.050201538444647482</v>
       </c>
       <c r="F166">
-        <v>0.15332836509839451</v>
+        <v>0.034067365002217367</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B167">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C167">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D167">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E167">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F167">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B168">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C168">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D168">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E168">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F168">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="169">
@@ -3368,306 +3368,306 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.60640798015873021</v>
+        <v>0.9286000139918773</v>
       </c>
       <c r="B171">
-        <v>0.69270860937964307</v>
+        <v>0.93771584497525318</v>
       </c>
       <c r="C171">
-        <v>0.72535695914579468</v>
+        <v>0.93791999382706204</v>
       </c>
       <c r="D171">
-        <v>0.73000668303599026</v>
+        <v>0.92608270911272006</v>
       </c>
       <c r="E171">
-        <v>0.7428542242508418</v>
+        <v>0.92156329336496889</v>
       </c>
       <c r="F171">
-        <v>0.75716063135593603</v>
+        <v>0.90143538386185784</v>
       </c>
       <c r="G171">
-        <v>0.39359201984126985</v>
+        <v>0.07139998600812264</v>
       </c>
       <c r="H171">
-        <v>0.30729139062035693</v>
+        <v>0.062284155024746837</v>
       </c>
       <c r="I171">
-        <v>0.27464304085420527</v>
+        <v>0.06208000617293806</v>
       </c>
       <c r="J171">
-        <v>0.26999331696400974</v>
+        <v>0.073917290887279899</v>
       </c>
       <c r="K171">
-        <v>0.25714577574915826</v>
+        <v>0.078436706635031189</v>
       </c>
       <c r="L171">
-        <v>0.24283936864406389</v>
+        <v>0.098564616138142047</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.11612333124344293</v>
+        <v>0.027633785041632369</v>
       </c>
       <c r="B172">
-        <v>0.024454820252998877</v>
+        <v>0.0056251245041954012</v>
       </c>
       <c r="C172">
-        <v>0.018401999295090218</v>
+        <v>0.0046966035514074524</v>
       </c>
       <c r="D172">
-        <v>0.020976251890250024</v>
+        <v>0.006184320237530347</v>
       </c>
       <c r="E172">
-        <v>0.027829305791543413</v>
+        <v>0.0092018256715926342</v>
       </c>
       <c r="F172">
-        <v>0.028845617800491274</v>
+        <v>0.011848265760912528</v>
       </c>
       <c r="G172">
-        <v>0.11612333124344293</v>
+        <v>0.027633785041632365</v>
       </c>
       <c r="H172">
-        <v>0.024454820252998874</v>
+        <v>0.005625124504195402</v>
       </c>
       <c r="I172">
-        <v>0.018401999295090211</v>
+        <v>0.0046966035514074455</v>
       </c>
       <c r="J172">
-        <v>0.020976251890250021</v>
+        <v>0.0061843202375303479</v>
       </c>
       <c r="K172">
-        <v>0.027829305791543413</v>
+        <v>0.0092018256715926325</v>
       </c>
       <c r="L172">
-        <v>0.028845617800491274</v>
+        <v>0.011848265760912529</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>5.2221028596522618</v>
+        <v>33.603793783329785</v>
       </c>
       <c r="B173">
-        <v>28.326056058199679</v>
+        <v>166.70134932584588</v>
       </c>
       <c r="C173">
-        <v>39.417290888568012</v>
+        <v>199.70175969951546</v>
       </c>
       <c r="D173">
-        <v>34.801578797559387</v>
+        <v>149.74688786209151</v>
       </c>
       <c r="E173">
-        <v>26.693235893673478</v>
+        <v>100.15004915926282</v>
       </c>
       <c r="F173">
-        <v>26.248722998161639</v>
+        <v>76.081631021115044</v>
       </c>
       <c r="G173">
-        <v>3.3894310094853966</v>
+        <v>2.5837932046063621</v>
       </c>
       <c r="H173">
-        <v>12.565677745379219</v>
+        <v>11.072493591616199</v>
       </c>
       <c r="I173">
-        <v>14.924630549653486</v>
+        <v>13.218063967595127</v>
       </c>
       <c r="J173">
-        <v>12.871380377039877</v>
+        <v>11.952371165824054</v>
       </c>
       <c r="K173">
-        <v>9.2401074491516066</v>
+        <v>8.5240374502178042</v>
       </c>
       <c r="L173">
-        <v>8.4185878882416603</v>
+        <v>8.3189065916555531</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>2.2142650408263679e-07</v>
+        <v>4.215386251384176e-158</v>
       </c>
       <c r="B174">
-        <v>1.1165108738414525e-125</v>
+        <v>0</v>
       </c>
       <c r="C174">
-        <v>1.9221885033327009e-222</v>
+        <v>0</v>
       </c>
       <c r="D174">
-        <v>1.3918560383891501e-148</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>3.0764542019610438e-100</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>7.6349089012718862e-107</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>0.00073186659500621277</v>
+        <v>0.0099381130575919383</v>
       </c>
       <c r="H174">
-        <v>2.1017423537743751e-33</v>
+        <v>1.4150804296295712e-27</v>
       </c>
       <c r="I174">
-        <v>1.5986868482280395e-46</v>
+        <v>1.5642377460480492e-38</v>
       </c>
       <c r="J174">
-        <v>8.2672517572101493e-34</v>
+        <v>2.858096710998629e-32</v>
       </c>
       <c r="K174">
-        <v>5.8794650136606085e-19</v>
+        <v>4.0835112265035746e-17</v>
       </c>
       <c r="L174">
-        <v>2.0784085486954497e-16</v>
+        <v>1.4416656370651573e-16</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.37849344004720697</v>
+        <v>0.87436144841835295</v>
       </c>
       <c r="B175">
-        <v>0.64471144136299219</v>
+        <v>0.92668305800087691</v>
       </c>
       <c r="C175">
-        <v>0.68925521664485501</v>
+        <v>0.92871009229134627</v>
       </c>
       <c r="D175">
-        <v>0.68881448339989471</v>
+        <v>0.91395725704730679</v>
       </c>
       <c r="E175">
-        <v>0.68818538449032263</v>
+        <v>0.90351178223992501</v>
       </c>
       <c r="F175">
-        <v>0.70052831693416606</v>
+        <v>0.87820193777053213</v>
       </c>
       <c r="G175">
-        <v>0.16567747972974664</v>
+        <v>0.017161420434598257</v>
       </c>
       <c r="H175">
-        <v>0.25929422260370605</v>
+        <v>0.051251368050370567</v>
       </c>
       <c r="I175">
-        <v>0.23854129835326557</v>
+        <v>0.052870104637222325</v>
       </c>
       <c r="J175">
-        <v>0.22880111732791419</v>
+        <v>0.061791838821866681</v>
       </c>
       <c r="K175">
-        <v>0.20247693598863906</v>
+        <v>0.060385195509987319</v>
       </c>
       <c r="L175">
-        <v>0.18620705422229392</v>
+        <v>0.075331170046816276</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.83432252027025344</v>
+        <v>0.98283857956540166</v>
       </c>
       <c r="B176">
-        <v>0.74070577739629395</v>
+        <v>0.94874863194962944</v>
       </c>
       <c r="C176">
-        <v>0.76145870164673435</v>
+        <v>0.94712989536277781</v>
       </c>
       <c r="D176">
-        <v>0.77119888267208581</v>
+        <v>0.93820816117813333</v>
       </c>
       <c r="E176">
-        <v>0.79752306401136097</v>
+        <v>0.93961480449001278</v>
       </c>
       <c r="F176">
-        <v>0.813792945777706</v>
+        <v>0.92466882995318356</v>
       </c>
       <c r="G176">
-        <v>0.62150655995279303</v>
+        <v>0.12563855158164702</v>
       </c>
       <c r="H176">
-        <v>0.35528855863700781</v>
+        <v>0.0733169419991231</v>
       </c>
       <c r="I176">
-        <v>0.31074478335514499</v>
+        <v>0.071289907708653802</v>
       </c>
       <c r="J176">
-        <v>0.31118551660010529</v>
+        <v>0.086042742952693124</v>
       </c>
       <c r="K176">
-        <v>0.31181461550967743</v>
+        <v>0.09648821776007506</v>
       </c>
       <c r="L176">
-        <v>0.29947168306583388</v>
+        <v>0.12179806222946782</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>870.21787131364113</v>
+        <v>848.78472465723814</v>
       </c>
       <c r="B177">
-        <v>872.24844493872581</v>
+        <v>1724.0294660223394</v>
       </c>
       <c r="C177">
-        <v>1267.0285448604377</v>
+        <v>2357.8446507375565</v>
       </c>
       <c r="D177">
-        <v>627.10726322806556</v>
+        <v>3330.0866500688621</v>
       </c>
       <c r="E177">
-        <v>531.87429267138339</v>
+        <v>1343.3523154790696</v>
       </c>
       <c r="F177">
-        <v>714.42573730443712</v>
+        <v>2494.7575890656121</v>
       </c>
       <c r="G177">
-        <v>870.21787131364147</v>
+        <v>848.7847246572419</v>
       </c>
       <c r="H177">
-        <v>872.24844493873081</v>
+        <v>1724.0294660223158</v>
       </c>
       <c r="I177">
-        <v>1267.0285448604482</v>
+        <v>2357.8446507377439</v>
       </c>
       <c r="J177">
-        <v>627.10726322806704</v>
+        <v>3330.0866500688398</v>
       </c>
       <c r="K177">
-        <v>531.87429267138339</v>
+        <v>1343.3523154790794</v>
       </c>
       <c r="L177">
-        <v>714.42573730443678</v>
+        <v>2494.757589065588</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1.9626937814393155</v>
+        <v>1.9627628097927925</v>
       </c>
       <c r="B178">
-        <v>1.9626874178625398</v>
+        <v>1.9613409385245881</v>
       </c>
       <c r="C178">
-        <v>1.9618380547689682</v>
+        <v>1.9609706109760485</v>
       </c>
       <c r="D178">
-        <v>1.9637540515635263</v>
+        <v>1.9606766143558259</v>
       </c>
       <c r="E178">
-        <v>1.9644341892686235</v>
+        <v>1.9617314834350201</v>
       </c>
       <c r="F178">
-        <v>1.9632900502760409</v>
+        <v>1.9609153407052189</v>
       </c>
       <c r="G178">
-        <v>1.9626937814393155</v>
+        <v>1.9627628097927925</v>
       </c>
       <c r="H178">
-        <v>1.9626874178625398</v>
+        <v>1.9613409385245881</v>
       </c>
       <c r="I178">
-        <v>1.9618380547689682</v>
+        <v>1.9609706109760485</v>
       </c>
       <c r="J178">
-        <v>1.9637540515635263</v>
+        <v>1.9606766143558259</v>
       </c>
       <c r="K178">
-        <v>1.9644341892686235</v>
+        <v>1.9617314834350201</v>
       </c>
       <c r="L178">
-        <v>1.9632900502760409</v>
+        <v>1.9609153407052189</v>
       </c>
     </row>
     <row r="179">
@@ -3710,306 +3710,306 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.58928400793650793</v>
+        <v>0.92939895531325456</v>
       </c>
       <c r="B181">
-        <v>0.4425057165794285</v>
+        <v>0.88619182823196441</v>
       </c>
       <c r="C181">
-        <v>0.44200350464196914</v>
+        <v>0.87190914372634065</v>
       </c>
       <c r="D181">
-        <v>0.44775011233592271</v>
+        <v>0.84848929942176488</v>
       </c>
       <c r="E181">
-        <v>0.40231052301839643</v>
+        <v>0.81857896960083631</v>
       </c>
       <c r="F181">
-        <v>0.43577207048401762</v>
+        <v>0.77691988446226168</v>
       </c>
       <c r="G181">
-        <v>0.41071599206349207</v>
+        <v>0.070601044686745412</v>
       </c>
       <c r="H181">
-        <v>0.5574942834205715</v>
+        <v>0.11380817176803563</v>
       </c>
       <c r="I181">
-        <v>0.55799649535803086</v>
+        <v>0.12809085627365932</v>
       </c>
       <c r="J181">
-        <v>0.55224988766407734</v>
+        <v>0.15151070057823512</v>
       </c>
       <c r="K181">
-        <v>0.59768947698160357</v>
+        <v>0.18142103039916363</v>
       </c>
       <c r="L181">
-        <v>0.56422792951598244</v>
+        <v>0.22308011553773835</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.11970548725756458</v>
+        <v>0.031466359509712202</v>
       </c>
       <c r="B182">
-        <v>0.026083800757139786</v>
+        <v>0.0071938569467588443</v>
       </c>
       <c r="C182">
-        <v>0.020263003835961323</v>
+        <v>0.0063138208136206929</v>
       </c>
       <c r="D182">
-        <v>0.022517462981464644</v>
+        <v>0.0084361358735785524</v>
       </c>
       <c r="E182">
-        <v>0.031342088371917286</v>
+        <v>0.012672227144244805</v>
       </c>
       <c r="F182">
-        <v>0.033291841194061193</v>
+        <v>0.016126249340555999</v>
       </c>
       <c r="G182">
-        <v>0.11970548725756459</v>
+        <v>0.031466359509712188</v>
       </c>
       <c r="H182">
-        <v>0.026083800757139789</v>
+        <v>0.0071938569467588434</v>
       </c>
       <c r="I182">
-        <v>0.020263003835961323</v>
+        <v>0.0063138208136206972</v>
       </c>
       <c r="J182">
-        <v>0.022517462981464641</v>
+        <v>0.0084361358735785506</v>
       </c>
       <c r="K182">
-        <v>0.031342088371917293</v>
+        <v>0.012672227144244798</v>
       </c>
       <c r="L182">
-        <v>0.033291841194061193</v>
+        <v>0.016126249340555992</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>4.9227819161587281</v>
+        <v>29.536272063070793</v>
       </c>
       <c r="B183">
-        <v>16.964771380501503</v>
+        <v>123.18730199816298</v>
       </c>
       <c r="C183">
-        <v>21.813325813892067</v>
+        <v>138.09532602594402</v>
       </c>
       <c r="D183">
-        <v>19.884571929994525</v>
+        <v>100.57795561107308</v>
       </c>
       <c r="E183">
-        <v>12.836110926764832</v>
+        <v>64.59629868397684</v>
       </c>
       <c r="F183">
-        <v>13.089455399713771</v>
+        <v>48.177345398497671</v>
       </c>
       <c r="G183">
-        <v>3.4310540099116262</v>
+        <v>2.2436991691064287</v>
       </c>
       <c r="H183">
-        <v>21.373199734627299</v>
+        <v>15.820188337121625</v>
       </c>
       <c r="I183">
-        <v>27.537698747692026</v>
+        <v>20.287375909897715</v>
       </c>
       <c r="J183">
-        <v>24.525404488004021</v>
+        <v>17.959727397558538</v>
       </c>
       <c r="K183">
-        <v>19.069867645358855</v>
+        <v>14.316428227973926</v>
       </c>
       <c r="L183">
-        <v>16.947934066699588</v>
+        <v>13.833353982485745</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>1.0110869141056514e-06</v>
+        <v>3.5563996134665458e-47</v>
       </c>
       <c r="B184">
-        <v>5.2950978823429999e-57</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>1.4669233512398305e-91</v>
+        <v>0</v>
       </c>
       <c r="D184">
-        <v>1.1323660680991967e-78</v>
+        <v>0</v>
       </c>
       <c r="E184">
-        <v>8.5832619080323567e-32</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>4.1359129140626186e-33</v>
+        <v>3.3302408399949356e-225</v>
       </c>
       <c r="G184">
-        <v>0.00062801691468799398</v>
+        <v>0.027386036079391534</v>
       </c>
       <c r="H184">
-        <v>6.1242068834317638e-84</v>
+        <v>1.7084651113586217e-53</v>
       </c>
       <c r="I184">
-        <v>7.6374396505400171e-135</v>
+        <v>2.5979417510582714e-81</v>
       </c>
       <c r="J184">
-        <v>9.2729926884490797e-113</v>
+        <v>2.8869062476058841e-59</v>
       </c>
       <c r="K184">
-        <v>4.866603995096728e-58</v>
+        <v>2.1057649299267847e-43</v>
       </c>
       <c r="L184">
-        <v>1.5018136339840857e-49</v>
+        <v>1.1154828411598844e-38</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.35435626832146633</v>
+        <v>0.86685778382257028</v>
       </c>
       <c r="B185">
-        <v>0.39132119517856312</v>
+        <v>0.87208442310836698</v>
       </c>
       <c r="C185">
-        <v>0.40225586157233334</v>
+        <v>0.85952457584602715</v>
       </c>
       <c r="D185">
-        <v>0.40358273071277229</v>
+        <v>0.83192513544089131</v>
       </c>
       <c r="E185">
-        <v>0.34069353481137654</v>
+        <v>0.79371969948803411</v>
       </c>
       <c r="F185">
-        <v>0.37033414746652038</v>
+        <v>0.74525865617315468</v>
       </c>
       <c r="G185">
-        <v>0.17578825244845045</v>
+        <v>0.0080598731960612319</v>
       </c>
       <c r="H185">
-        <v>0.50630976201970612</v>
+        <v>0.099700766644438249</v>
       </c>
       <c r="I185">
-        <v>0.51824885228839501</v>
+        <v>0.11570628839334578</v>
       </c>
       <c r="J185">
-        <v>0.50808250604092697</v>
+        <v>0.13494653659736158</v>
       </c>
       <c r="K185">
-        <v>0.53607248877458369</v>
+        <v>0.15656176028636146</v>
       </c>
       <c r="L185">
-        <v>0.49879000649848515</v>
+        <v>0.1914188872486314</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.82421174755154958</v>
+        <v>0.99194012680393884</v>
       </c>
       <c r="B186">
-        <v>0.49369023798029388</v>
+        <v>0.90029923335556183</v>
       </c>
       <c r="C186">
-        <v>0.48175114771160493</v>
+        <v>0.88429371160665415</v>
       </c>
       <c r="D186">
-        <v>0.49191749395907314</v>
+        <v>0.86505346340263845</v>
       </c>
       <c r="E186">
-        <v>0.46392751122541631</v>
+        <v>0.84343823971363852</v>
       </c>
       <c r="F186">
-        <v>0.50120999350151485</v>
+        <v>0.80858111275136868</v>
       </c>
       <c r="G186">
-        <v>0.64564373167853373</v>
+        <v>0.13314221617742961</v>
       </c>
       <c r="H186">
-        <v>0.60867880482143688</v>
+        <v>0.12791557689163302</v>
       </c>
       <c r="I186">
-        <v>0.59774413842766672</v>
+        <v>0.14047542415397288</v>
       </c>
       <c r="J186">
-        <v>0.59641726928722771</v>
+        <v>0.16807486455910867</v>
       </c>
       <c r="K186">
-        <v>0.65930646518862346</v>
+        <v>0.2062803005119658</v>
       </c>
       <c r="L186">
-        <v>0.62966585253347973</v>
+        <v>0.25474134382684532</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>919.3197278609573</v>
+        <v>87.16064308517484</v>
       </c>
       <c r="B187">
-        <v>1012.0781739436393</v>
+        <v>2216.2019992055257</v>
       </c>
       <c r="C187">
-        <v>1462.915417099679</v>
+        <v>1544.2921420819182</v>
       </c>
       <c r="D187">
-        <v>1573.9051281889404</v>
+        <v>676.350882908313</v>
       </c>
       <c r="E187">
-        <v>397.47093902044145</v>
+        <v>1357.6962191192897</v>
       </c>
       <c r="F187">
-        <v>423.27163915927889</v>
+        <v>704.93420836195583</v>
       </c>
       <c r="G187">
-        <v>919.31972786095582</v>
+        <v>87.160643085175167</v>
       </c>
       <c r="H187">
-        <v>1012.0781739436346</v>
+        <v>2216.2019992055402</v>
       </c>
       <c r="I187">
-        <v>1462.9154170996808</v>
+        <v>1544.2921420818707</v>
       </c>
       <c r="J187">
-        <v>1573.9051281889447</v>
+        <v>676.35088290831732</v>
       </c>
       <c r="K187">
-        <v>397.4709390204402</v>
+        <v>1357.696219119322</v>
       </c>
       <c r="L187">
-        <v>423.271639159279</v>
+        <v>704.93420836196401</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1.962547791226636</v>
+        <v>1.9875566308006101</v>
       </c>
       <c r="B188">
-        <v>1.9623107030080686</v>
+        <v>1.9610349813744079</v>
       </c>
       <c r="C188">
-        <v>1.9615869093946745</v>
+        <v>1.9615013231918987</v>
       </c>
       <c r="D188">
-        <v>1.9614723763288526</v>
+        <v>1.9634776192677827</v>
       </c>
       <c r="E188">
-        <v>1.9659503054119738</v>
+        <v>1.9617127936419785</v>
       </c>
       <c r="F188">
-        <v>1.9655843795497405</v>
+        <v>1.9633349094685031</v>
       </c>
       <c r="G188">
-        <v>1.962547791226636</v>
+        <v>1.9875566308006065</v>
       </c>
       <c r="H188">
-        <v>1.9623107030080686</v>
+        <v>1.9610349813744079</v>
       </c>
       <c r="I188">
-        <v>1.9615869093946745</v>
+        <v>1.9615013231918987</v>
       </c>
       <c r="J188">
-        <v>1.9614723763288526</v>
+        <v>1.9634776192677827</v>
       </c>
       <c r="K188">
-        <v>1.9659503054119738</v>
+        <v>1.9617127936419785</v>
       </c>
       <c r="L188">
-        <v>1.9655843795497405</v>
+        <v>1.9633349094684993</v>
       </c>
     </row>
     <row r="189">
@@ -4055,37 +4055,37 @@
         <v>1</v>
       </c>
       <c r="B191">
-        <v>0.98859062845837242</v>
+        <v>0.99782708263967579</v>
       </c>
       <c r="C191">
-        <v>0.9760217517124149</v>
+        <v>0.99450784266610781</v>
       </c>
       <c r="D191">
-        <v>0.97752082307059085</v>
+        <v>0.99384484101572146</v>
       </c>
       <c r="E191">
-        <v>0.9752124623971522</v>
+        <v>0.99247733119412318</v>
       </c>
       <c r="F191">
-        <v>0.97859978838227413</v>
+        <v>0.99014063645968009</v>
       </c>
       <c r="G191">
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0.011409371541627524</v>
+        <v>0.0021729173603242968</v>
       </c>
       <c r="I191">
-        <v>0.023978248287585168</v>
+        <v>0.0054921573338921059</v>
       </c>
       <c r="J191">
-        <v>0.022479176929409109</v>
+        <v>0.0061551589842785397</v>
       </c>
       <c r="K191">
-        <v>0.024787537602847708</v>
+        <v>0.0075226688058768008</v>
       </c>
       <c r="L191">
-        <v>0.021400211617725852</v>
+        <v>0.0098593635403198942</v>
       </c>
     </row>
     <row r="192">
@@ -4093,75 +4093,75 @@
         <v>0</v>
       </c>
       <c r="B192">
-        <v>0.0063794745048531623</v>
+        <v>0.0012253311163612742</v>
       </c>
       <c r="C192">
-        <v>0.0064446464305353566</v>
+        <v>0.0015129679522497578</v>
       </c>
       <c r="D192">
-        <v>0.0069959331508435479</v>
+        <v>0.0018701351081496999</v>
       </c>
       <c r="E192">
-        <v>0.0098535076776390361</v>
+        <v>0.0029550470514557812</v>
       </c>
       <c r="F192">
-        <v>0.0091576746756538464</v>
+        <v>0.0038987211831804543</v>
       </c>
       <c r="G192"/>
       <c r="H192">
-        <v>0.0063794745048531545</v>
+        <v>0.0012253311163612818</v>
       </c>
       <c r="I192">
-        <v>0.0064446464305353574</v>
+        <v>0.0015129679522497455</v>
       </c>
       <c r="J192">
-        <v>0.0069959331508435531</v>
+        <v>0.0018701351081497049</v>
       </c>
       <c r="K192">
-        <v>0.0098535076776390378</v>
+        <v>0.0029550470514557829</v>
       </c>
       <c r="L192">
-        <v>0.0091576746756538447</v>
+        <v>0.0038987211831804599</v>
       </c>
     </row>
     <row r="193">
       <c r="A193"/>
       <c r="B193">
-        <v>154.96427295168365</v>
+        <v>814.33260717544567</v>
       </c>
       <c r="C193">
-        <v>151.44690437755122</v>
+        <v>657.32247744394817</v>
       </c>
       <c r="D193">
-        <v>139.72701024919377</v>
+        <v>531.42943345896833</v>
       </c>
       <c r="E193">
-        <v>98.971096821717751</v>
+        <v>335.85838530225328</v>
       </c>
       <c r="F193">
-        <v>106.86116542051144</v>
+        <v>253.96549020516375</v>
       </c>
       <c r="G193"/>
       <c r="H193">
-        <v>1.7884500569675292</v>
+        <v>1.773330760404541</v>
       </c>
       <c r="I193">
-        <v>3.7206460503362777</v>
+        <v>3.6300553000646216</v>
       </c>
       <c r="J193">
-        <v>3.2131777769629806</v>
+        <v>3.291291071674709</v>
       </c>
       <c r="K193">
-        <v>2.5156054487174213</v>
+        <v>2.5457018703545891</v>
       </c>
       <c r="L193">
-        <v>2.3368608708736325</v>
+        <v>2.528871154688964</v>
       </c>
     </row>
     <row r="194">
       <c r="A194"/>
       <c r="B194">
-        <v>3.0726060951096804e-139</v>
+        <v>0</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -4177,161 +4177,161 @@
       </c>
       <c r="G194"/>
       <c r="H194">
-        <v>0.076245500475512817</v>
+        <v>0.077792402364263546</v>
       </c>
       <c r="I194">
-        <v>0.00020935223082694797</v>
+        <v>0.00030273183119324161</v>
       </c>
       <c r="J194">
-        <v>0.0013674928169646575</v>
+        <v>0.0010048856792032497</v>
       </c>
       <c r="K194">
-        <v>0.012152629493611199</v>
+        <v>0.010976137184042781</v>
       </c>
       <c r="L194">
-        <v>0.019870007279323587</v>
+        <v>0.01156316931244057</v>
       </c>
     </row>
     <row r="195">
       <c r="A195"/>
       <c r="B195">
-        <v>0.97595875536325438</v>
+        <v>0.99540992298096054</v>
       </c>
       <c r="C195">
-        <v>0.96337575103791739</v>
+        <v>0.99153765641799685</v>
       </c>
       <c r="D195">
-        <v>0.96378742182668031</v>
+        <v>0.99017846886958527</v>
       </c>
       <c r="E195">
-        <v>0.9558594407743386</v>
+        <v>0.98668223373889463</v>
       </c>
       <c r="F195">
-        <v>0.96060424530854172</v>
+        <v>0.98249200003939052</v>
       </c>
       <c r="G195"/>
       <c r="H195">
-        <v>-0.001222501553490473</v>
+        <v>-0.00024424229839092263</v>
       </c>
       <c r="I195">
-        <v>0.011332247613087624</v>
+        <v>0.0025219710857811747</v>
       </c>
       <c r="J195">
-        <v>0.0087457756854985927</v>
+        <v>0.0024887868381423218</v>
       </c>
       <c r="K195">
-        <v>0.0054345159800340478</v>
+        <v>0.0017275713506482403</v>
       </c>
       <c r="L195">
-        <v>0.0034046685439934818</v>
+        <v>0.0022107271200303208</v>
       </c>
     </row>
     <row r="196">
       <c r="A196"/>
       <c r="B196">
-        <v>1.0012225015534904</v>
+        <v>1.000244242298391</v>
       </c>
       <c r="C196">
-        <v>0.9886677523869124</v>
+        <v>0.99747802891421877</v>
       </c>
       <c r="D196">
-        <v>0.99125422431450139</v>
+        <v>0.99751121316185765</v>
       </c>
       <c r="E196">
-        <v>0.99456548401996581</v>
+        <v>0.99827242864935173</v>
       </c>
       <c r="F196">
-        <v>0.99659533145600654</v>
+        <v>0.99778927287996966</v>
       </c>
       <c r="G196"/>
       <c r="H196">
-        <v>0.024041244636745521</v>
+        <v>0.0045900770190395162</v>
       </c>
       <c r="I196">
-        <v>0.03662424896208271</v>
+        <v>0.0084623435820030367</v>
       </c>
       <c r="J196">
-        <v>0.036212578173319625</v>
+        <v>0.0098215311304147568</v>
       </c>
       <c r="K196">
-        <v>0.044140559225661367</v>
+        <v>0.013317766261105361</v>
       </c>
       <c r="L196">
-        <v>0.039395754691458222</v>
+        <v>0.017507999960609467</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B197">
-        <v>119.11345607006103</v>
+        <v>188.06389756113785</v>
       </c>
       <c r="C197">
-        <v>1039.3994484990596</v>
+        <v>745.28214945737977</v>
       </c>
       <c r="D197">
-        <v>768.67336563099661</v>
+        <v>4552.8698324151246</v>
       </c>
       <c r="E197">
-        <v>578.33374636917313</v>
+        <v>2118.0039720924779</v>
       </c>
       <c r="F197">
-        <v>465.0849284101896</v>
+        <v>1271.0540640507431</v>
       </c>
       <c r="G197"/>
       <c r="H197">
-        <v>119.1134560700625</v>
+        <v>188.06389756112097</v>
       </c>
       <c r="I197">
-        <v>1039.3994484990567</v>
+        <v>745.28214945757213</v>
       </c>
       <c r="J197">
-        <v>768.67336563098274</v>
+        <v>4552.8698324144289</v>
       </c>
       <c r="K197">
-        <v>578.33374636917006</v>
+        <v>2118.0039720924119</v>
       </c>
       <c r="L197">
-        <v>465.08492841019222</v>
+        <v>1271.054064050667</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B198">
-        <v>1.9800805043594674</v>
+        <v>1.9726583504164681</v>
       </c>
       <c r="C198">
-        <v>1.9622489473711964</v>
+        <v>1.9631521234103764</v>
       </c>
       <c r="D198">
-        <v>1.9630549560432227</v>
+        <v>1.9604851703809218</v>
       </c>
       <c r="E198">
-        <v>1.9640743434677839</v>
+        <v>1.9610846644129227</v>
       </c>
       <c r="F198">
-        <v>1.9650777856931803</v>
+        <v>1.9618321138958814</v>
       </c>
       <c r="G198">
         <v>1.9599639845400538</v>
       </c>
       <c r="H198">
-        <v>1.9800805043594674</v>
+        <v>1.9726583504164714</v>
       </c>
       <c r="I198">
-        <v>1.9622489473711964</v>
+        <v>1.9631521234103728</v>
       </c>
       <c r="J198">
-        <v>1.9630549560432227</v>
+        <v>1.9604851703809218</v>
       </c>
       <c r="K198">
-        <v>1.9640743434677839</v>
+        <v>1.9610846644129227</v>
       </c>
       <c r="L198">
-        <v>1.9650777856931803</v>
+        <v>1.9618321138958814</v>
       </c>
     </row>
     <row r="199">
@@ -4374,306 +4374,306 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.80430801190476198</v>
+        <v>0.96808258865723862</v>
       </c>
       <c r="B201">
-        <v>0.87619504558255612</v>
+        <v>0.9759100390824329</v>
       </c>
       <c r="C201">
-        <v>0.85661778449982129</v>
+        <v>0.96698506967158937</v>
       </c>
       <c r="D201">
-        <v>0.84472238155749613</v>
+        <v>0.95772994178795423</v>
       </c>
       <c r="E201">
-        <v>0.87962279033360957</v>
+        <v>0.96109330430926065</v>
       </c>
       <c r="F201">
-        <v>0.82846750977777217</v>
+        <v>0.92541631438580974</v>
       </c>
       <c r="G201">
-        <v>0.19569198809523808</v>
+        <v>0.031917411342761513</v>
       </c>
       <c r="H201">
-        <v>0.12380495441744399</v>
+        <v>0.024089960917567155</v>
       </c>
       <c r="I201">
-        <v>0.14338221550017866</v>
+        <v>0.033014930328410505</v>
       </c>
       <c r="J201">
-        <v>0.1552776184425039</v>
+        <v>0.042270058212045783</v>
       </c>
       <c r="K201">
-        <v>0.12037720966639047</v>
+        <v>0.038906695690739415</v>
       </c>
       <c r="L201">
-        <v>0.17153249022222788</v>
+        <v>0.074583685614190293</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.10435040225592845</v>
+        <v>0.019394958601096673</v>
       </c>
       <c r="B202">
-        <v>0.017216748046930002</v>
+        <v>0.0035696915689422595</v>
       </c>
       <c r="C202">
-        <v>0.014238240152753549</v>
+        <v>0.0035426272123619176</v>
       </c>
       <c r="D202">
-        <v>0.016925855705146525</v>
+        <v>0.0049582789097721517</v>
       </c>
       <c r="E202">
-        <v>0.020795075929910031</v>
+        <v>0.0071025078983299027</v>
       </c>
       <c r="F202">
-        <v>0.022760754423899365</v>
+        <v>0.0098963491443179851</v>
       </c>
       <c r="G202">
-        <v>0.10435040225592845</v>
+        <v>0.019394958601096683</v>
       </c>
       <c r="H202">
-        <v>0.017216748046930002</v>
+        <v>0.0035696915689422564</v>
       </c>
       <c r="I202">
-        <v>0.014238240152753547</v>
+        <v>0.0035426272123619197</v>
       </c>
       <c r="J202">
-        <v>0.016925855705146525</v>
+        <v>0.0049582789097721456</v>
       </c>
       <c r="K202">
-        <v>0.020795075929910013</v>
+        <v>0.007102507898329901</v>
       </c>
       <c r="L202">
-        <v>0.022760754423899361</v>
+        <v>0.0098963491443179868</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>7.7077614893340467</v>
+        <v>49.914135346620391</v>
       </c>
       <c r="B203">
-        <v>50.892017655958817</v>
+        <v>273.38777601214611</v>
       </c>
       <c r="C203">
-        <v>60.163178546623897</v>
+        <v>272.9570490220695</v>
       </c>
       <c r="D203">
-        <v>49.907218652504959</v>
+        <v>193.15773864604259</v>
       </c>
       <c r="E203">
-        <v>42.29957098009092</v>
+        <v>135.3174566036391</v>
       </c>
       <c r="F203">
-        <v>36.398947695154625</v>
+        <v>93.510879708315457</v>
       </c>
       <c r="G203">
-        <v>1.8753352537663097</v>
+        <v>1.6456550384674062</v>
       </c>
       <c r="H203">
-        <v>7.1909604578037731</v>
+        <v>6.7484712480930966</v>
       </c>
       <c r="I203">
-        <v>10.070220333546617</v>
+        <v>9.3193351570285561</v>
       </c>
       <c r="J203">
-        <v>9.1739892592425765</v>
+        <v>8.5251473306063517</v>
       </c>
       <c r="K203">
-        <v>5.7887362408352301</v>
+        <v>5.4778813691834145</v>
       </c>
       <c r="L203">
-        <v>7.5363270930121056</v>
+        <v>7.5364848720007718</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>7.9134465340803259e-13</v>
+        <v>8.4275409451468725e-160</v>
       </c>
       <c r="B204">
-        <v>1.904253309875531e-292</v>
+        <v>0</v>
       </c>
       <c r="C204">
         <v>0</v>
       </c>
       <c r="D204">
-        <v>3.104540692423691e-257</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>9.6519203495362076e-138</v>
+        <v>6.6968967377105249e-244</v>
       </c>
       <c r="F204">
-        <v>2.4885981627027132e-187</v>
+        <v>0</v>
       </c>
       <c r="G204">
-        <v>0.062341439998936918</v>
+        <v>0.10074641527133359</v>
       </c>
       <c r="H204">
-        <v>1.180334991579956e-12</v>
+        <v>1.9169786571147371e-11</v>
       </c>
       <c r="I204">
-        <v>2.8078841016255327e-23</v>
+        <v>3.9675347484504954e-20</v>
       </c>
       <c r="J204">
-        <v>3.2482119607779303e-19</v>
+        <v>6.0982403339495378e-17</v>
       </c>
       <c r="K204">
-        <v>1.6085736076434491e-08</v>
+        <v>1.011726956211386e-07</v>
       </c>
       <c r="L204">
-        <v>1.0542670102009921e-13</v>
+        <v>5.6299395196148767e-14</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.59842168629408565</v>
+        <v>0.92993520737959368</v>
       </c>
       <c r="B205">
-        <v>0.84241399838937014</v>
+        <v>0.96890961481844917</v>
       </c>
       <c r="C205">
-        <v>0.8286936972943405</v>
+        <v>0.96003612584624198</v>
       </c>
       <c r="D205">
-        <v>0.81150197666811186</v>
+        <v>0.94799925051416112</v>
       </c>
       <c r="E205">
-        <v>0.83872006714911085</v>
+        <v>0.94710784823218641</v>
       </c>
       <c r="F205">
-        <v>0.7838049196697634</v>
+        <v>0.90601547396496263</v>
       </c>
       <c r="G205">
-        <v>-0.010194337515438245</v>
+        <v>-0.0062299699348835058</v>
       </c>
       <c r="H205">
-        <v>0.090023907224257974</v>
+        <v>0.017089536653583381</v>
       </c>
       <c r="I205">
-        <v>0.1154581282946979</v>
+        <v>0.02606598650306308</v>
       </c>
       <c r="J205">
-        <v>0.12205721355311962</v>
+        <v>0.032539366938252698</v>
       </c>
       <c r="K205">
-        <v>0.079474486481891843</v>
+        <v>0.024921239613665193</v>
       </c>
       <c r="L205">
-        <v>0.1268699001142192</v>
+        <v>0.055182845193343141</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>1.0101943375154383</v>
+        <v>1.0062299699348836</v>
       </c>
       <c r="B206">
-        <v>0.9099760927757421</v>
+        <v>0.98291046334641663</v>
       </c>
       <c r="C206">
-        <v>0.88454187170530207</v>
+        <v>0.97393401349693676</v>
       </c>
       <c r="D206">
-        <v>0.8779427864468804</v>
+        <v>0.96746063306174734</v>
       </c>
       <c r="E206">
-        <v>0.9205255135181083</v>
+        <v>0.9750787603863349</v>
       </c>
       <c r="F206">
-        <v>0.87313009988578094</v>
+        <v>0.94481715480665684</v>
       </c>
       <c r="G206">
-        <v>0.4015783137059144</v>
+        <v>0.070064792620406532</v>
       </c>
       <c r="H206">
-        <v>0.15758600161063002</v>
+        <v>0.031090385181550929</v>
       </c>
       <c r="I206">
-        <v>0.17130630270565941</v>
+        <v>0.039963874153757933</v>
       </c>
       <c r="J206">
-        <v>0.1884980233318882</v>
+        <v>0.052000749485838868</v>
       </c>
       <c r="K206">
-        <v>0.1612799328508891</v>
+        <v>0.052892151767813637</v>
       </c>
       <c r="L206">
-        <v>0.21619508033023657</v>
+        <v>0.093984526035037444</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>182.76813273441266</v>
+        <v>344.64789808255046</v>
       </c>
       <c r="B207">
-        <v>1109.8102029446081</v>
+        <v>2141.0737229609203</v>
       </c>
       <c r="C207">
-        <v>1914.9744083334401</v>
+        <v>1523.0934402113674</v>
       </c>
       <c r="D207">
-        <v>867.72069581339611</v>
+        <v>931.52320459393286</v>
       </c>
       <c r="E207">
-        <v>341.11738105561693</v>
+        <v>261.21954198312778</v>
       </c>
       <c r="F207">
-        <v>1032.9775222701671</v>
+        <v>5395.0366885356216</v>
       </c>
       <c r="G207">
-        <v>182.76813273441255</v>
+        <v>344.64789808254631</v>
       </c>
       <c r="H207">
-        <v>1109.810202944612</v>
+        <v>2141.0737229610177</v>
       </c>
       <c r="I207">
-        <v>1914.974408333446</v>
+        <v>1523.0934402113303</v>
       </c>
       <c r="J207">
-        <v>867.72069581339383</v>
+        <v>931.5232045939714</v>
       </c>
       <c r="K207">
-        <v>341.1173810556221</v>
+        <v>261.21954198312892</v>
       </c>
       <c r="L207">
-        <v>1032.9775222701694</v>
+        <v>5395.0366885355706</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>1.9730285764085718</v>
+        <v>1.9668709824153985</v>
       </c>
       <c r="B208">
-        <v>1.9621038247818046</v>
+        <v>1.9610725825419379</v>
       </c>
       <c r="C208">
-        <v>1.961203555067196</v>
+        <v>1.9615227368827401</v>
       </c>
       <c r="D208">
-        <v>1.9627016481821471</v>
+        <v>1.9625138986463866</v>
       </c>
       <c r="E208">
-        <v>1.9669427186686705</v>
+        <v>1.96908701507573</v>
       </c>
       <c r="F208">
-        <v>1.9622631691466224</v>
+        <v>1.9604037951698774</v>
       </c>
       <c r="G208">
-        <v>1.9730285764085718</v>
+        <v>1.9668709824153985</v>
       </c>
       <c r="H208">
-        <v>1.9621038247818046</v>
+        <v>1.9610725825419379</v>
       </c>
       <c r="I208">
-        <v>1.961203555067196</v>
+        <v>1.9615227368827401</v>
       </c>
       <c r="J208">
-        <v>1.9627016481821471</v>
+        <v>1.9625138986463866</v>
       </c>
       <c r="K208">
-        <v>1.9669427186686705</v>
+        <v>1.96908701507573</v>
       </c>
       <c r="L208">
-        <v>1.962263169146619</v>
+        <v>1.9604037951698774</v>
       </c>
     </row>
     <row r="209">
@@ -4716,114 +4716,114 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.69429798609851134</v>
+        <v>0.94299934389545204</v>
       </c>
       <c r="B211">
-        <v>0.73951627401533837</v>
+        <v>0.92189599906936459</v>
       </c>
       <c r="C211">
-        <v>0.30570201390148866</v>
+        <v>0.05700065610454795</v>
       </c>
       <c r="D211">
-        <v>0.26048372598466163</v>
+        <v>0.078104000930635437</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.020838289266765349</v>
+        <v>0.0043620072009840369</v>
       </c>
       <c r="B212">
-        <v>0.011272481338155933</v>
+        <v>0.0037207477593602144</v>
       </c>
       <c r="C212">
-        <v>0.020838289266765352</v>
+        <v>0.0043620072009840395</v>
       </c>
       <c r="D212">
-        <v>0.01127248133815594</v>
+        <v>0.0037207477593602148</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>33.318377397027305</v>
+        <v>216.1847288291313</v>
       </c>
       <c r="B213">
-        <v>65.603681375117361</v>
+        <v>247.77170039279559</v>
       </c>
       <c r="C213">
-        <v>14.670206847979975</v>
+        <v>13.067529116340978</v>
       </c>
       <c r="D213">
-        <v>23.107931445666431</v>
+        <v>20.991479665384645</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>3.1983555927219403e-152</v>
+        <v>0</v>
       </c>
       <c r="B214">
         <v>0</v>
       </c>
       <c r="C214">
-        <v>3.1728603364587695e-43</v>
+        <v>2.1331711687366957e-38</v>
       </c>
       <c r="D214">
-        <v>4.4720407177680707e-103</v>
+        <v>3.8810460349822326e-95</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.65339240738346949</v>
+        <v>0.9344478984319976</v>
       </c>
       <c r="B215">
-        <v>0.71740701321202616</v>
+        <v>0.91460230095810413</v>
       </c>
       <c r="C215">
-        <v>0.2647964351864468</v>
+        <v>0.04844921064109356</v>
       </c>
       <c r="D215">
-        <v>0.23837446518134942</v>
+        <v>0.070810302819375004</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.7352035648135532</v>
+        <v>0.95155078935890647</v>
       </c>
       <c r="B216">
-        <v>0.76162553481865058</v>
+        <v>0.92918969718062505</v>
       </c>
       <c r="C216">
-        <v>0.34660759261653051</v>
+        <v>0.065552101568002341</v>
       </c>
       <c r="D216">
-        <v>0.28259298678797384</v>
+        <v>0.085397699041895869</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>782.35740694115054</v>
+        <v>5003.9058043085315</v>
       </c>
       <c r="B217">
-        <v>1715.0112350433992</v>
+        <v>7567.8997313196314</v>
       </c>
       <c r="C217">
-        <v>782.357406941146</v>
+        <v>5003.9058043083578</v>
       </c>
       <c r="D217">
-        <v>1715.0112350433724</v>
+        <v>7567.8997313196141</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1.963000810257564</v>
+        <v>1.9604381811944844</v>
       </c>
       <c r="B218">
-        <v>1.9613481841371636</v>
+        <v>1.9602774987666978</v>
       </c>
       <c r="C218">
-        <v>1.963000810257564</v>
+        <v>1.9604381811944844</v>
       </c>
       <c r="D218">
-        <v>1.9613481841371636</v>
+        <v>1.9602774987666978</v>
       </c>
     </row>
     <row r="219">
@@ -4842,114 +4842,114 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.48122655832636518</v>
+        <v>0.90176793648894427</v>
       </c>
       <c r="B221">
-        <v>0.42533583288050869</v>
+        <v>0.83189415485020857</v>
       </c>
       <c r="C221">
-        <v>0.51877344167363471</v>
+        <v>0.098232063511055692</v>
       </c>
       <c r="D221">
-        <v>0.57466416711949131</v>
+        <v>0.16810584514979143</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.022729719591750363</v>
+        <v>0.0056026597484548982</v>
       </c>
       <c r="B222">
-        <v>0.012614640071246699</v>
+        <v>0.0049583234628954205</v>
       </c>
       <c r="C222">
-        <v>0.022729719591750356</v>
+        <v>0.0056026597484548904</v>
       </c>
       <c r="D222">
-        <v>0.012614640071246703</v>
+        <v>0.0049583234628954162</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>21.171689179175971</v>
+        <v>160.953542955671</v>
       </c>
       <c r="B223">
-        <v>33.717635261746544</v>
+        <v>167.77730639711487</v>
       </c>
       <c r="C223">
-        <v>22.823574201149452</v>
+        <v>17.533112471830236</v>
       </c>
       <c r="D223">
-        <v>45.555336012270175</v>
+        <v>33.903767353577599</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>6.4281081001397897e-76</v>
+        <v>0</v>
       </c>
       <c r="B224">
-        <v>2.0795781207791641e-188</v>
+        <v>0</v>
       </c>
       <c r="C224">
-        <v>6.0283678121794468e-85</v>
+        <v>1.6991438507614043e-64</v>
       </c>
       <c r="D224">
-        <v>1.6772002227200671e-290</v>
+        <v>4.5948799137418828e-232</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.43659326591122916</v>
+        <v>0.89078083729589552</v>
       </c>
       <c r="B225">
-        <v>0.4005927260775492</v>
+        <v>0.82217420050021317</v>
       </c>
       <c r="C225">
-        <v>0.47414014925849868</v>
+        <v>0.087244964318007004</v>
       </c>
       <c r="D225">
-        <v>0.54992106031653176</v>
+        <v>0.15838589079979606</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.52585985074150121</v>
+        <v>0.91275503568199301</v>
       </c>
       <c r="B226">
-        <v>0.45007893968346818</v>
+        <v>0.84161410920020396</v>
       </c>
       <c r="C226">
-        <v>0.56340673408877073</v>
+        <v>0.10921916270410438</v>
       </c>
       <c r="D226">
-        <v>0.59940727392245086</v>
+        <v>0.1778257994997868</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>644.17340849893105</v>
+        <v>2184.3886709547332</v>
       </c>
       <c r="B227">
-        <v>1587.3455807629102</v>
+        <v>6467.8650714279338</v>
       </c>
       <c r="C227">
-        <v>644.17340849893606</v>
+        <v>2184.3886709548815</v>
       </c>
       <c r="D227">
-        <v>1587.3455807628948</v>
+        <v>6467.8650714282148</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1.9636534553349911</v>
+        <v>1.9610505878174613</v>
       </c>
       <c r="B228">
-        <v>1.9614595948209363</v>
+        <v>1.9603308301147815</v>
       </c>
       <c r="C228">
-        <v>1.9636534553349911</v>
+        <v>1.9610505878174613</v>
       </c>
       <c r="D228">
-        <v>1.9614595948209363</v>
+        <v>1.9603308301147815</v>
       </c>
     </row>
     <row r="229">
@@ -4968,114 +4968,114 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.98013428481883658</v>
+        <v>0.99625946040592939</v>
       </c>
       <c r="B231">
-        <v>0.97892776170512497</v>
+        <v>0.99353022857336337</v>
       </c>
       <c r="C231">
-        <v>0.019865715181163361</v>
+        <v>0.0037405395940705009</v>
       </c>
       <c r="D231">
-        <v>0.021072238294874996</v>
+        <v>0.0064697714266365117</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.0071206741026097892</v>
+        <v>0.0011487124081698682</v>
       </c>
       <c r="B232">
-        <v>0.003868458646951109</v>
+        <v>0.0011448788295607944</v>
       </c>
       <c r="C232">
-        <v>0.0071206741026097918</v>
+        <v>0.0011487124081698645</v>
       </c>
       <c r="D232">
-        <v>0.0038684586469511059</v>
+        <v>0.0011448788295607933</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>137.64627768312116</v>
+        <v>867.28362409976285</v>
       </c>
       <c r="B233">
-        <v>253.05369684555322</v>
+        <v>867.80382597738105</v>
       </c>
       <c r="C233">
-        <v>2.7898643997599044</v>
+        <v>3.2562890132178088</v>
       </c>
       <c r="D233">
-        <v>5.4471923362765962</v>
+        <v>5.6510534211891157</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>1.9492116839789303e-102</v>
+        <v>0</v>
       </c>
       <c r="B234">
         <v>0</v>
       </c>
       <c r="C234">
-        <v>0.006495839898070975</v>
+        <v>0.0011455651051669202</v>
       </c>
       <c r="D234">
-        <v>8.1932258552207624e-08</v>
+        <v>1.6567022011546914e-08</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.96597838605119324</v>
+        <v>0.99400681277570557</v>
       </c>
       <c r="B235">
-        <v>0.97132652832331989</v>
+        <v>0.99128592327498166</v>
       </c>
       <c r="C235">
-        <v>0.0057098164135199834</v>
+        <v>0.0014878919638466612</v>
       </c>
       <c r="D235">
-        <v>0.013471004913069906</v>
+        <v>0.0042254661282548327</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.99429018358647991</v>
+        <v>0.9985121080361532</v>
       </c>
       <c r="B236">
-        <v>0.98652899508693004</v>
+        <v>0.99577453387174508</v>
       </c>
       <c r="C236">
-        <v>0.034021613948806741</v>
+        <v>0.0059931872242943406</v>
       </c>
       <c r="D236">
-        <v>0.028673471676680086</v>
+        <v>0.0087140767250181907</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>85.801523878673137</v>
+        <v>2248.3230646341003</v>
       </c>
       <c r="B237">
-        <v>479.31499599905123</v>
+        <v>7073.535529718094</v>
       </c>
       <c r="C237">
-        <v>85.80152387867291</v>
+        <v>2248.3230646344718</v>
       </c>
       <c r="D237">
-        <v>479.31499599905919</v>
+        <v>7073.5355297183942</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1.9879998106436456</v>
+        <v>1.9610196722892297</v>
       </c>
       <c r="B238">
-        <v>1.9649255880752248</v>
+        <v>1.9602994137315433</v>
       </c>
       <c r="C238">
-        <v>1.9879998106436456</v>
+        <v>1.9610196722892297</v>
       </c>
       <c r="D238">
-        <v>1.9649255880752248</v>
+        <v>1.9602994137315433</v>
       </c>
     </row>
     <row r="239">
@@ -5094,44 +5094,44 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.84434117075628679</v>
+        <v>0.97128653490591377</v>
       </c>
       <c r="B241">
-        <v>0.85622013139902786</v>
+        <v>0.95610803814658607</v>
       </c>
       <c r="C241">
-        <v>0.15565882924371321</v>
+        <v>0.02871346509408616</v>
       </c>
       <c r="D241">
-        <v>0.143779868600972</v>
+        <v>0.043891961853414034</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.015878141364611287</v>
+        <v>0.003202576098081336</v>
       </c>
       <c r="B242">
-        <v>0.0088960307567432489</v>
+        <v>0.0029170345037895736</v>
       </c>
       <c r="C242">
-        <v>0.015878141364611284</v>
+        <v>0.0032025760980813355</v>
       </c>
       <c r="D242">
-        <v>0.0088960307567432454</v>
+        <v>0.0029170345037895689</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>53.176322805522339</v>
+        <v>303.28289013579155</v>
       </c>
       <c r="B243">
-        <v>96.247433806364427</v>
+        <v>327.76713367788017</v>
       </c>
       <c r="C243">
-        <v>9.8033406851157565</v>
+        <v>8.965740146280492</v>
       </c>
       <c r="D243">
-        <v>16.162249494471002</v>
+        <v>15.046775002624496</v>
       </c>
     </row>
     <row r="244">
@@ -5142,66 +5142,66 @@
         <v>0</v>
       </c>
       <c r="C244">
-        <v>5.3781156982197731e-22</v>
+        <v>8.8322144950208503e-19</v>
       </c>
       <c r="D244">
-        <v>3.0927671515338906e-55</v>
+        <v>3.0716261076843423e-50</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.81319389688132371</v>
+        <v>0.96500459660892002</v>
       </c>
       <c r="B245">
-        <v>0.83877339106867854</v>
+        <v>0.95038958234012294</v>
       </c>
       <c r="C245">
-        <v>0.12451155536875017</v>
+        <v>0.022431526797092372</v>
       </c>
       <c r="D245">
-        <v>0.12633312827062274</v>
+        <v>0.038173506046950904</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.87548844463124986</v>
+        <v>0.97756847320290752</v>
       </c>
       <c r="B246">
-        <v>0.87366687172937718</v>
+        <v>0.9618264939530492</v>
       </c>
       <c r="C246">
-        <v>0.18680610311867626</v>
+        <v>0.034995403391079948</v>
       </c>
       <c r="D246">
-        <v>0.16122660893132126</v>
+        <v>0.049610417659877164</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>1412.5477621649015</v>
+        <v>1519.3030361335341</v>
       </c>
       <c r="B247">
-        <v>1947.9550936754044</v>
+        <v>5899.396844164944</v>
       </c>
       <c r="C247">
-        <v>1412.547762164905</v>
+        <v>1519.3030361335425</v>
       </c>
       <c r="D247">
-        <v>1947.9550936754115</v>
+        <v>5899.3968441654351</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1.9616448272959162</v>
+        <v>1.9615266287528026</v>
       </c>
       <c r="B248">
-        <v>1.9611825551664743</v>
+        <v>1.960366186630359</v>
       </c>
       <c r="C248">
-        <v>1.9616448272959162</v>
+        <v>1.9615266287528026</v>
       </c>
       <c r="D248">
-        <v>1.9611825551664743</v>
+        <v>1.9603661866303557</v>
       </c>
     </row>
     <row r="249">
@@ -5220,114 +5220,114 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.55475068783068782</v>
+        <v>0.93889792828596863</v>
       </c>
       <c r="B251">
-        <v>0.73199206684235874</v>
+        <v>0.92808112042824731</v>
       </c>
       <c r="C251">
-        <v>0.44524931216931207</v>
+        <v>0.061102071714031356</v>
       </c>
       <c r="D251">
-        <v>0.26800793315764121</v>
+        <v>0.07191887957175265</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.07495539842551148</v>
+        <v>0.012693463353774319</v>
       </c>
       <c r="B252">
-        <v>0.010051363044699502</v>
+        <v>0.0030153267891766459</v>
       </c>
       <c r="C252">
-        <v>0.07495539842551148</v>
+        <v>0.012693463353774319</v>
       </c>
       <c r="D252">
-        <v>0.010051363044699502</v>
+        <v>0.0030153267891766459</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>7.4010771670032964</v>
+        <v>73.967041312392766</v>
       </c>
       <c r="B253">
-        <v>72.82515451756251</v>
+        <v>307.78790669042729</v>
       </c>
       <c r="C253">
-        <v>5.9401900533126781</v>
+        <v>4.8136643255729767</v>
       </c>
       <c r="D253">
-        <v>26.663839716641501</v>
+        <v>23.851106231636855</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>1.9470368964096373e-13</v>
+        <v>0</v>
       </c>
       <c r="B254">
         <v>0</v>
       </c>
       <c r="C254">
-        <v>3.3260643110981256e-09</v>
+        <v>1.5082661797688624e-06</v>
       </c>
       <c r="D254">
-        <v>4.5290617236199084e-135</v>
+        <v>1.2255920572383062e-121</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.40775567940726376</v>
+        <v>0.91401554011667918</v>
       </c>
       <c r="B255">
-        <v>0.71228034191715817</v>
+        <v>0.92217031976380603</v>
       </c>
       <c r="C255">
-        <v>0.29825430374588802</v>
+        <v>0.036219683544741921</v>
       </c>
       <c r="D255">
-        <v>0.24829620823244061</v>
+        <v>0.066008078907311363</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.70174569625411187</v>
+        <v>0.96378031645525808</v>
       </c>
       <c r="B256">
-        <v>0.7517037917675593</v>
+        <v>0.93399192109268858</v>
       </c>
       <c r="C256">
-        <v>0.59224432059273613</v>
+        <v>0.085984459883320791</v>
       </c>
       <c r="D256">
-        <v>0.28771965808284183</v>
+        <v>0.077829680236193938</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B257">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C257">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D257">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B258">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C258">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D258">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="259">
@@ -5346,114 +5346,114 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.63066724867724866</v>
+        <v>0.93937794913111095</v>
       </c>
       <c r="B261">
-        <v>0.43656672740906161</v>
+        <v>0.85017745480936635</v>
       </c>
       <c r="C261">
-        <v>0.36933275132275134</v>
+        <v>0.060622050868888944</v>
       </c>
       <c r="D261">
-        <v>0.56343327259093845</v>
+        <v>0.14982254519063376</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.06283442542510656</v>
+        <v>0.00914700713817004</v>
       </c>
       <c r="B262">
-        <v>0.011173808294363013</v>
+        <v>0.0040146239988742968</v>
       </c>
       <c r="C262">
-        <v>0.06283442542510656</v>
+        <v>0.00914700713817004</v>
       </c>
       <c r="D262">
-        <v>0.011173808294363013</v>
+        <v>0.0040146239988742968</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>10.036970091004521</v>
+        <v>102.69784804377488</v>
       </c>
       <c r="B263">
-        <v>39.070540312500412</v>
+        <v>211.77013215876673</v>
       </c>
       <c r="C263">
-        <v>5.8778726601545106</v>
+        <v>6.6275285405557316</v>
       </c>
       <c r="D263">
-        <v>50.424462076656575</v>
+        <v>37.319197322749055</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>3.480055198397212e-23</v>
+        <v>0</v>
       </c>
       <c r="B264">
-        <v>3.7091355248811432e-251</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>4.8250222094517046e-09</v>
+        <v>3.6282361084484469e-11</v>
       </c>
       <c r="D264">
-        <v>0</v>
+        <v>8.9171450725579787e-282</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.50744267661626008</v>
+        <v>0.92144750919869223</v>
       </c>
       <c r="B265">
-        <v>0.41465377545558918</v>
+        <v>0.84230777969315529</v>
       </c>
       <c r="C265">
-        <v>0.24610817926176276</v>
+        <v>0.042691610936470267</v>
       </c>
       <c r="D265">
-        <v>0.54152032063746602</v>
+        <v>0.14195287007442267</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.75389182073823724</v>
+        <v>0.95730838906352966</v>
       </c>
       <c r="B266">
-        <v>0.45847967936253403</v>
+        <v>0.85804712992557741</v>
       </c>
       <c r="C266">
-        <v>0.49255732338373992</v>
+        <v>0.07855249080130762</v>
       </c>
       <c r="D266">
-        <v>0.58534622454441088</v>
+        <v>0.15769222030684485</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B267">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C267">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D267">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B268">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C268">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D268">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="269">
@@ -5472,44 +5472,44 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.98905227513227501</v>
+        <v>0.99804655276470666</v>
       </c>
       <c r="B271">
-        <v>0.97864671520913382</v>
+        <v>0.99415996942227891</v>
       </c>
       <c r="C271">
-        <v>0.010947724867724868</v>
+        <v>0.001953447235293252</v>
       </c>
       <c r="D271">
-        <v>0.021353284790866203</v>
+        <v>0.0058400305777210493</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.0063119236439287347</v>
+        <v>0.0011448439881431868</v>
       </c>
       <c r="B272">
-        <v>0.0032930821215652567</v>
+        <v>0.00091193892416872023</v>
       </c>
       <c r="C272">
-        <v>0.0063119236439287347</v>
+        <v>0.0011448439881431868</v>
       </c>
       <c r="D272">
-        <v>0.0032930821215652567</v>
+        <v>0.00091193892416872023</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>156.69585548355249</v>
+        <v>871.77516159510105</v>
       </c>
       <c r="B273">
-        <v>297.18260252312405</v>
+        <v>1090.1606928649387</v>
       </c>
       <c r="C273">
-        <v>1.7344514105862454</v>
+        <v>1.7062999461276223</v>
       </c>
       <c r="D273">
-        <v>6.4842855424196442</v>
+        <v>6.4039711684031264</v>
       </c>
     </row>
     <row r="274">
@@ -5520,66 +5520,66 @@
         <v>0</v>
       </c>
       <c r="C274">
-        <v>0.082985458035967727</v>
+        <v>0.087989952662118134</v>
       </c>
       <c r="D274">
-        <v>1.1092870912692979e-10</v>
+        <v>1.5968231932231277e-10</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.97667396364708747</v>
+        <v>0.99580236993514137</v>
       </c>
       <c r="B275">
-        <v>0.97218865288985257</v>
+        <v>0.99237233923298918</v>
       </c>
       <c r="C275">
-        <v>-0.0014305866174626324</v>
+        <v>-0.00029073559427200647</v>
       </c>
       <c r="D275">
-        <v>0.01489522247158491</v>
+        <v>0.0040524003884312831</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>1.0014305866174624</v>
+        <v>1.0002907355942718</v>
       </c>
       <c r="B276">
-        <v>0.98510477752841508</v>
+        <v>0.99594759961156865</v>
       </c>
       <c r="C276">
-        <v>0.023326036352912367</v>
+        <v>0.00419763006485851</v>
       </c>
       <c r="D276">
-        <v>0.027811347110147495</v>
+        <v>0.0076276607670108156</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B277">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C277">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D277">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B278">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C278">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D278">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="279">
@@ -5598,114 +5598,114 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.8255297883597883</v>
+        <v>0.9751870383897504</v>
       </c>
       <c r="B281">
-        <v>0.852794490539446</v>
+        <v>0.96008556050191007</v>
       </c>
       <c r="C281">
-        <v>0.17447021164021165</v>
+        <v>0.024812961610249384</v>
       </c>
       <c r="D281">
-        <v>0.14720550946055411</v>
+        <v>0.039914439498089982</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.060853321067728006</v>
+        <v>0.0078220539404870656</v>
       </c>
       <c r="B282">
-        <v>0.0080033539541508932</v>
+        <v>0.0023233485875402918</v>
       </c>
       <c r="C282">
-        <v>0.060853321067728006</v>
+        <v>0.0078220539404870656</v>
       </c>
       <c r="D282">
-        <v>0.0080033539541508932</v>
+        <v>0.0023233485875402918</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>13.565895400203338</v>
+        <v>124.67147961511337</v>
       </c>
       <c r="B283">
-        <v>106.55463889575309</v>
+        <v>413.23353957760764</v>
       </c>
       <c r="C283">
-        <v>2.8670614615434267</v>
+        <v>3.1721798135163874</v>
       </c>
       <c r="D283">
-        <v>18.392977532151608</v>
+        <v>17.179703343761702</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>3.0590377388352947e-40</v>
+        <v>0</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
       <c r="C284">
-        <v>0.0041845228623819545</v>
+        <v>0.0015185494244298969</v>
       </c>
       <c r="D284">
-        <v>3.8032505873992091e-70</v>
+        <v>5.0761976977175463e-65</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.70619035943482</v>
+        <v>0.9598538407427547</v>
       </c>
       <c r="B285">
-        <v>0.83709911560157302</v>
+        <v>0.95553121155895127</v>
       </c>
       <c r="C285">
-        <v>0.055130782715243368</v>
+        <v>0.0094797639632536353</v>
       </c>
       <c r="D285">
-        <v>0.13151013452268115</v>
+        <v>0.035360090555131216</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.94486921728475659</v>
+        <v>0.9905202360367461</v>
       </c>
       <c r="B286">
-        <v>0.86848986547731899</v>
+        <v>0.96463990944486888</v>
       </c>
       <c r="C286">
-        <v>0.29380964056517994</v>
+        <v>0.040146159257245129</v>
       </c>
       <c r="D286">
-        <v>0.16290088439842706</v>
+        <v>0.044468788441048748</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B287">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C287">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D287">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B288">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C288">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D288">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="289">
@@ -5724,44 +5724,62 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.71667569202179793</v>
+        <v>0.89960154853413743</v>
       </c>
       <c r="B291">
-        <v>0.78289362478497782</v>
+        <v>0.92877327532497367</v>
       </c>
       <c r="C291">
-        <v>0.28332430797820207</v>
+        <v>0.94458524606986549</v>
       </c>
       <c r="D291">
-        <v>0.21710637521502213</v>
+        <v>0.10039845146586254</v>
+      </c>
+      <c r="E291">
+        <v>0.071226724675026359</v>
+      </c>
+      <c r="F291">
+        <v>0.055414753930134487</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.011124853747935998</v>
+        <v>0.006657199191828461</v>
       </c>
       <c r="B292">
-        <v>0.024162436692122157</v>
+        <v>0.0077887056789785391</v>
       </c>
       <c r="C292">
-        <v>0.011124853747935991</v>
+        <v>0.0033922816613910396</v>
       </c>
       <c r="D292">
-        <v>0.024162436692122161</v>
+        <v>0.0066571991918284671</v>
+      </c>
+      <c r="E292">
+        <v>0.0077887056789785417</v>
+      </c>
+      <c r="F292">
+        <v>0.0033922816613910396</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>64.421133819827816</v>
+        <v>135.13213629515172</v>
       </c>
       <c r="B293">
-        <v>32.401269572295661</v>
+        <v>119.24616407469372</v>
       </c>
       <c r="C293">
-        <v>25.467688330803234</v>
+        <v>278.45130220776792</v>
       </c>
       <c r="D293">
-        <v>8.9852848030764534</v>
+        <v>15.081184830566425</v>
+      </c>
+      <c r="E293">
+        <v>9.144873052176683</v>
+      </c>
+      <c r="F293">
+        <v>16.335540341721241</v>
       </c>
     </row>
     <row r="294">
@@ -5769,69 +5787,99 @@
         <v>0</v>
       </c>
       <c r="B294">
-        <v>1.3028616002524429e-80</v>
+        <v>6.0433204967367208e-309</v>
       </c>
       <c r="C294">
-        <v>7.3563297200263666e-116</v>
+        <v>0</v>
       </c>
       <c r="D294">
-        <v>2.1795070372259748e-16</v>
+        <v>3.0301531382055303e-47</v>
+      </c>
+      <c r="E294">
+        <v>3.3492447049414014e-18</v>
+      </c>
+      <c r="F294">
+        <v>2.6511037436707368e-55</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.69485051669942088</v>
+        <v>0.88654068510093098</v>
       </c>
       <c r="B295">
-        <v>0.7352416315637621</v>
+        <v>0.91346016762240101</v>
       </c>
       <c r="C295">
-        <v>0.26149913265582503</v>
+        <v>0.93793108566522498</v>
       </c>
       <c r="D295">
-        <v>0.16945438199380644</v>
+        <v>0.087337588032656038</v>
+      </c>
+      <c r="E295">
+        <v>0.055913616972453672</v>
+      </c>
+      <c r="F295">
+        <v>0.048760593525494028</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.73850086734417497</v>
+        <v>0.91266241196734388</v>
       </c>
       <c r="B296">
-        <v>0.83054561800619353</v>
+        <v>0.94408638302754633</v>
       </c>
       <c r="C296">
-        <v>0.30514948330057912</v>
+        <v>0.951239406474506</v>
       </c>
       <c r="D296">
-        <v>0.26475836843623785</v>
+        <v>0.11345931489906905</v>
+      </c>
+      <c r="E296">
+        <v>0.086539832377599046</v>
+      </c>
+      <c r="F296">
+        <v>0.062068914334774947</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>1266.1860166842844</v>
+        <v>1216.6863431083011</v>
       </c>
       <c r="B297">
-        <v>195.83077623415167</v>
+        <v>389.97143597506067</v>
       </c>
       <c r="C297">
-        <v>1266.1860166843055</v>
+        <v>1488.552674916428</v>
       </c>
       <c r="D297">
-        <v>195.83077623415116</v>
+        <v>1216.686343108257</v>
+      </c>
+      <c r="E297">
+        <v>389.97143597505749</v>
+      </c>
+      <c r="F297">
+        <v>1488.5526749164201</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>1.9618393029594914</v>
+        <v>1.9619156730713956</v>
       </c>
       <c r="B298">
-        <v>1.9721518085447065</v>
+        <v>1.9660657795687742</v>
       </c>
       <c r="C298">
-        <v>1.9618393029594914</v>
+        <v>1.9615589355017922</v>
       </c>
       <c r="D298">
-        <v>1.9721518085447065</v>
+        <v>1.9619156730713956</v>
+      </c>
+      <c r="E298">
+        <v>1.9660657795687742</v>
+      </c>
+      <c r="F298">
+        <v>1.9615589355017922</v>
       </c>
     </row>
     <row r="299">
@@ -5847,117 +5895,171 @@
       <c r="D299">
         <v>0</v>
       </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.45735329710432238</v>
+        <v>0.87415688708245387</v>
       </c>
       <c r="B301">
-        <v>0.35562596453161577</v>
+        <v>0.8498510650440616</v>
       </c>
       <c r="C301">
-        <v>0.54264670289567762</v>
+        <v>0.85152830378458444</v>
       </c>
       <c r="D301">
-        <v>0.64437403546838423</v>
+        <v>0.12584311291754607</v>
+      </c>
+      <c r="E301">
+        <v>0.15014893495593828</v>
+      </c>
+      <c r="F301">
+        <v>0.14847169621541562</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.012080611949480942</v>
+        <v>0.007449137491133539</v>
       </c>
       <c r="B302">
-        <v>0.026332623140510568</v>
+        <v>0.0097931291985565282</v>
       </c>
       <c r="C302">
-        <v>0.012080611949480945</v>
+        <v>0.0049633607106110483</v>
       </c>
       <c r="D302">
-        <v>0.026332623140510571</v>
+        <v>0.0074491374911335546</v>
+      </c>
+      <c r="E302">
+        <v>0.00979312919855653</v>
+      </c>
+      <c r="F302">
+        <v>0.0049633607106110474</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>37.858454440627334</v>
+        <v>117.35008088156968</v>
       </c>
       <c r="B303">
-        <v>13.505147688249659</v>
+        <v>86.78033831814723</v>
       </c>
       <c r="C303">
-        <v>44.91880917663223</v>
+        <v>171.562848930992</v>
       </c>
       <c r="D303">
-        <v>24.470560036119906</v>
+        <v>16.893648837510742</v>
+      </c>
+      <c r="E303">
+        <v>15.332069240756026</v>
+      </c>
+      <c r="F303">
+        <v>29.913541423254127</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>1.09639894164185e-228</v>
+        <v>0</v>
       </c>
       <c r="B304">
-        <v>1.1452058250469056e-35</v>
+        <v>0</v>
       </c>
       <c r="C304">
-        <v>2.9968982282631686e-292</v>
+        <v>0</v>
       </c>
       <c r="D304">
-        <v>1.346287317646906e-87</v>
+        <v>1.6084618749885221e-52</v>
+      </c>
+      <c r="E304">
+        <v>4.3563750434076182e-51</v>
+      </c>
+      <c r="F304">
+        <v>4.3521138465116801e-176</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.43365906986088348</v>
+        <v>0.859526843711241</v>
       </c>
       <c r="B305">
-        <v>0.30389005157477122</v>
+        <v>0.83064891453916134</v>
       </c>
       <c r="C305">
-        <v>0.51895247565223879</v>
+        <v>0.84179707788237546</v>
       </c>
       <c r="D305">
-        <v>0.59263812251153969</v>
+        <v>0.11121306954633314</v>
+      </c>
+      <c r="E305">
+        <v>0.13094678445103802</v>
+      </c>
+      <c r="F305">
+        <v>0.13874047031320666</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.48104752434776127</v>
+        <v>0.88878693045366675</v>
       </c>
       <c r="B306">
-        <v>0.40736187748846031</v>
+        <v>0.86905321554896187</v>
       </c>
       <c r="C306">
-        <v>0.56634093013911646</v>
+        <v>0.86125952968679342</v>
       </c>
       <c r="D306">
-        <v>0.69610994842522878</v>
+        <v>0.140473156288759</v>
+      </c>
+      <c r="E306">
+        <v>0.16935108546083855</v>
+      </c>
+      <c r="F306">
+        <v>0.15820292211762457</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>1721.086416775838</v>
+        <v>590.19237487209466</v>
       </c>
       <c r="B307">
-        <v>501.25421604510626</v>
+        <v>2916.1228693277535</v>
       </c>
       <c r="C307">
-        <v>1721.0864167758305</v>
+        <v>3660.4985492926294</v>
       </c>
       <c r="D307">
-        <v>501.25421604510495</v>
+        <v>590.19237487205987</v>
+      </c>
+      <c r="E307">
+        <v>2916.1228693277144</v>
+      </c>
+      <c r="F307">
+        <v>3660.4985492926403</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>1.9613432947373959</v>
+        <v>1.9639915881035288</v>
       </c>
       <c r="B308">
-        <v>1.9647079093025526</v>
+        <v>1.960777818363777</v>
       </c>
       <c r="C308">
-        <v>1.9613432947373923</v>
+        <v>1.9606122684988037</v>
       </c>
       <c r="D308">
-        <v>1.9647079093025526</v>
+        <v>1.9639915881035288</v>
+      </c>
+      <c r="E308">
+        <v>1.960777818363777</v>
+      </c>
+      <c r="F308">
+        <v>1.9606122684988037</v>
       </c>
     </row>
     <row r="309">
@@ -5973,47 +6075,71 @@
       <c r="D309">
         <v>0</v>
       </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.97908180958886715</v>
+        <v>0.99101407923209961</v>
       </c>
       <c r="B311">
-        <v>0.97890523421519793</v>
+        <v>0.99277583304490269</v>
       </c>
       <c r="C311">
-        <v>0.020918190411132919</v>
+        <v>0.99676143040417475</v>
       </c>
       <c r="D311">
-        <v>0.021094765784802121</v>
+        <v>0.00898592076790042</v>
+      </c>
+      <c r="E311">
+        <v>0.0072241669550972536</v>
+      </c>
+      <c r="F311">
+        <v>0.0032385695958252942</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.0034206813030636021</v>
+        <v>0.0020273316825864963</v>
       </c>
       <c r="B312">
-        <v>0.0079151321219465207</v>
+        <v>0.0025197475259938333</v>
       </c>
       <c r="C312">
-        <v>0.0034206813030636051</v>
+        <v>0.00083716928809038609</v>
       </c>
       <c r="D312">
-        <v>0.0079151321219465207</v>
+        <v>0.0020273316825864919</v>
+      </c>
+      <c r="E312">
+        <v>0.0025197475259938333</v>
+      </c>
+      <c r="F312">
+        <v>0.00083716928809038924</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>286.22421174167556</v>
+        <v>488.82681001056073</v>
       </c>
       <c r="B313">
-        <v>123.67516033004155</v>
+        <v>393.9981378306282</v>
       </c>
       <c r="C313">
-        <v>6.1152117247515356</v>
+        <v>1190.6330590289858</v>
       </c>
       <c r="D313">
-        <v>2.6651185930696015</v>
+        <v>4.4323880720080711</v>
+      </c>
+      <c r="E313">
+        <v>2.8670201599852403</v>
+      </c>
+      <c r="F313">
+        <v>3.8684763546600931</v>
       </c>
     </row>
     <row r="314">
@@ -6024,66 +6150,96 @@
         <v>0</v>
       </c>
       <c r="C314">
-        <v>1.1503583458258134e-09</v>
+        <v>0</v>
       </c>
       <c r="D314">
-        <v>0.0077670858210524456</v>
+        <v>9.4635245666910176e-06</v>
+      </c>
+      <c r="E314">
+        <v>0.0041818419120399639</v>
+      </c>
+      <c r="F314">
+        <v>0.00011115095853214816</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.97237345922292573</v>
+        <v>0.98703988587721014</v>
       </c>
       <c r="B315">
-        <v>0.96338108972003256</v>
+        <v>0.98783457894344584</v>
       </c>
       <c r="C315">
-        <v>0.014209840045191539</v>
+        <v>0.99512014316359054</v>
       </c>
       <c r="D315">
-        <v>0.0055706212896366944</v>
+        <v>0.0050117274130109741</v>
+      </c>
+      <c r="E315">
+        <v>0.0022829128536404272</v>
+      </c>
+      <c r="F315">
+        <v>0.0015972823552410857</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.98579015995480856</v>
+        <v>0.99498827258698908</v>
       </c>
       <c r="B316">
-        <v>0.9944293787103633</v>
+        <v>0.99771708714635954</v>
       </c>
       <c r="C316">
-        <v>0.027626540777074299</v>
+        <v>0.99840271764475896</v>
       </c>
       <c r="D316">
-        <v>0.036618910279967547</v>
+        <v>0.012960114122789867</v>
+      </c>
+      <c r="E316">
+        <v>0.01216542105655408</v>
+      </c>
+      <c r="F316">
+        <v>0.0048798568364095025</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>2061.7159001608838</v>
+        <v>6908.516950329612</v>
       </c>
       <c r="B317">
-        <v>1744.5311445237514</v>
+        <v>2265.6604925593228</v>
       </c>
       <c r="C317">
-        <v>2061.7159001608702</v>
+        <v>4266.7571973169224</v>
       </c>
       <c r="D317">
-        <v>1744.5311445237521</v>
+        <v>6908.5169503302386</v>
+      </c>
+      <c r="E317">
+        <v>2265.6604925593278</v>
+      </c>
+      <c r="F317">
+        <v>4266.7571973159802</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>1.9611152783900965</v>
+        <v>1.960307427257846</v>
       </c>
       <c r="B318">
-        <v>1.9613247455618803</v>
+        <v>1.96101158964643</v>
       </c>
       <c r="C318">
-        <v>1.9611152783900965</v>
+        <v>1.9605201288834171</v>
       </c>
       <c r="D318">
-        <v>1.9613247455618803</v>
+        <v>1.960307427257846</v>
+      </c>
+      <c r="E318">
+        <v>1.96101158964643</v>
+      </c>
+      <c r="F318">
+        <v>1.9605201288834171</v>
       </c>
     </row>
     <row r="319">
@@ -6099,47 +6255,71 @@
       <c r="D319">
         <v>0</v>
       </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.84688920128501266</v>
+        <v>0.96081764123824076</v>
       </c>
       <c r="B321">
-        <v>0.88257517646820849</v>
+        <v>0.9679583668500662</v>
       </c>
       <c r="C321">
-        <v>0.15311079871498728</v>
+        <v>0.96210230611003011</v>
       </c>
       <c r="D321">
-        <v>0.11742482353179151</v>
+        <v>0.039182358761759239</v>
+      </c>
+      <c r="E321">
+        <v>0.032041633149933885</v>
+      </c>
+      <c r="F321">
+        <v>0.037897693889969816</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.0087078497204874147</v>
+        <v>0.004242834104976557</v>
       </c>
       <c r="B322">
-        <v>0.018235545942584329</v>
+        <v>0.0051923445919469799</v>
       </c>
       <c r="C322">
-        <v>0.0087078497204874164</v>
+        <v>0.0028260077448085362</v>
       </c>
       <c r="D322">
-        <v>0.018235545942584336</v>
+        <v>0.0042428341049765639</v>
+      </c>
+      <c r="E322">
+        <v>0.0051923445919469895</v>
+      </c>
+      <c r="F322">
+        <v>0.0028260077448085358</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>97.255835650504167</v>
+        <v>226.45656593343273</v>
       </c>
       <c r="B323">
-        <v>48.398615497833049</v>
+        <v>186.42028657946017</v>
       </c>
       <c r="C323">
-        <v>17.583077755092102</v>
+        <v>340.44574289558898</v>
       </c>
       <c r="D323">
-        <v>6.4393368809198428</v>
+        <v>9.2349495154196397</v>
+      </c>
+      <c r="E323">
+        <v>6.1709373448804818</v>
+      </c>
+      <c r="F323">
+        <v>13.410329097501258</v>
       </c>
     </row>
     <row r="324">
@@ -6147,69 +6327,99 @@
         <v>0</v>
       </c>
       <c r="B324">
-        <v>9.0918551402634186e-163</v>
+        <v>0</v>
       </c>
       <c r="C324">
-        <v>8.3218961852486842e-64</v>
+        <v>0</v>
       </c>
       <c r="D324">
-        <v>3.7027822509775459e-10</v>
+        <v>6.1146769024810341e-20</v>
+      </c>
+      <c r="E324">
+        <v>1.0536246510929682e-09</v>
+      </c>
+      <c r="F324">
+        <v>1.2535799552376768e-39</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.82981019171144155</v>
+        <v>0.95249705270515195</v>
       </c>
       <c r="B325">
-        <v>0.8467176889987631</v>
+        <v>0.95776691908381839</v>
       </c>
       <c r="C325">
-        <v>0.13603178914141614</v>
+        <v>0.95656070532289772</v>
       </c>
       <c r="D325">
-        <v>0.081567336062346119</v>
+        <v>0.030861770228670385</v>
+      </c>
+      <c r="E325">
+        <v>0.021850185383686008</v>
+      </c>
+      <c r="F325">
+        <v>0.032356093102837442</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.86396821085858377</v>
+        <v>0.96913822977132957</v>
       </c>
       <c r="B326">
-        <v>0.91843266393765388</v>
+        <v>0.97814981461631401</v>
       </c>
       <c r="C326">
-        <v>0.17018980828855843</v>
+        <v>0.96764390689716251</v>
       </c>
       <c r="D326">
-        <v>0.1532823110012369</v>
+        <v>0.047502947294848094</v>
+      </c>
+      <c r="E326">
+        <v>0.042233080916181762</v>
+      </c>
+      <c r="F326">
+        <v>0.04343929467710219</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>1731.6162677308691</v>
+        <v>2104.0129605758134</v>
       </c>
       <c r="B327">
-        <v>372.59874514844097</v>
+        <v>842.59506756590133</v>
       </c>
       <c r="C327">
-        <v>1731.6162677308625</v>
+        <v>2459.2405940100862</v>
       </c>
       <c r="D327">
-        <v>372.59874514843966</v>
+        <v>2104.0129605756511</v>
+      </c>
+      <c r="E327">
+        <v>842.5950675658496</v>
+      </c>
+      <c r="F327">
+        <v>2459.2405940101025</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>1.9613349014726844</v>
+        <v>1.9610921207900525</v>
       </c>
       <c r="B328">
-        <v>1.9663511902711746</v>
+        <v>1.9627833988626593</v>
       </c>
       <c r="C328">
-        <v>1.9613349014726844</v>
+        <v>1.9609290870884795</v>
       </c>
       <c r="D328">
-        <v>1.9663511902711746</v>
+        <v>1.9610921207900525</v>
+      </c>
+      <c r="E328">
+        <v>1.9627833988626628</v>
+      </c>
+      <c r="F328">
+        <v>1.9609290870884795</v>
       </c>
     </row>
     <row r="329">
@@ -6225,165 +6435,171 @@
       <c r="D329">
         <v>0</v>
       </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>0.69295339662447264</v>
+        <v>0.9125092560205752</v>
       </c>
       <c r="B331">
-        <v>0.73691776165011458</v>
+        <v>0.92118903815640096</v>
       </c>
       <c r="C331">
-        <v>0.72664436605676208</v>
+        <v>0.93867142990757435</v>
       </c>
       <c r="D331">
-        <v>0.30704660337552736</v>
+        <v>0.087490743979424829</v>
       </c>
       <c r="E331">
-        <v>0.26308223834988542</v>
+        <v>0.07881096184359912</v>
       </c>
       <c r="F331">
-        <v>0.27335563394323803</v>
+        <v>0.061328570092425747</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>0.028279755911214205</v>
+        <v>0.0082698936088137151</v>
       </c>
       <c r="B332">
-        <v>0.017063404383251747</v>
+        <v>0.0059061373738769586</v>
       </c>
       <c r="C332">
-        <v>0.013961882634157884</v>
+        <v>0.0035329094447269318</v>
       </c>
       <c r="D332">
-        <v>0.028279755911214205</v>
+        <v>0.0082698936088137151</v>
       </c>
       <c r="E332">
-        <v>0.017063404383251747</v>
+        <v>0.0059061373738769586</v>
       </c>
       <c r="F332">
-        <v>0.013961882634157884</v>
+        <v>0.0035329094447269318</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>24.503514061438032</v>
+        <v>110.34111189145892</v>
       </c>
       <c r="B333">
-        <v>43.187030272424529</v>
+        <v>155.97148861298936</v>
       </c>
       <c r="C333">
-        <v>52.044869957509846</v>
+        <v>265.69360030118941</v>
       </c>
       <c r="D333">
-        <v>10.857470069385197</v>
+        <v>10.579427997257518</v>
       </c>
       <c r="E333">
-        <v>15.417922030149429</v>
+        <v>13.343909369968706</v>
       </c>
       <c r="F333">
-        <v>19.578708767718098</v>
+        <v>17.359225038717629</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>9.062958598696152e-117</v>
+        <v>0</v>
       </c>
       <c r="B334">
-        <v>8.4289348995757414e-292</v>
+        <v>0</v>
       </c>
       <c r="C334">
         <v>0</v>
       </c>
       <c r="D334">
-        <v>9.3760158284183575e-27</v>
+        <v>5.4478847337897344e-26</v>
       </c>
       <c r="E334">
-        <v>7.0337820214884211e-51</v>
+        <v>3.3554485953648041e-40</v>
       </c>
       <c r="F334">
-        <v>1.6573463062899834e-78</v>
+        <v>2.5226147793384886e-66</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>0.63749397614640801</v>
+        <v>0.89629817972420389</v>
       </c>
       <c r="B335">
-        <v>0.70345472464763648</v>
+        <v>0.90961151997856993</v>
       </c>
       <c r="C335">
-        <v>0.69926372238698775</v>
+        <v>0.93174603675673617</v>
       </c>
       <c r="D335">
-        <v>0.25158718289746268</v>
+        <v>0.071279667683053521</v>
       </c>
       <c r="E335">
-        <v>0.22961920134740729</v>
+        <v>0.067233443665768083</v>
       </c>
       <c r="F335">
-        <v>0.24597499027346367</v>
+        <v>0.054403176941587549</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>0.74841281710253726</v>
+        <v>0.92872033231694651</v>
       </c>
       <c r="B336">
-        <v>0.77038079865259268</v>
+        <v>0.932766556334232</v>
       </c>
       <c r="C336">
-        <v>0.75402500972653641</v>
+        <v>0.94559682305841253</v>
       </c>
       <c r="D336">
-        <v>0.36250602385359204</v>
+        <v>0.10370182027579614</v>
       </c>
       <c r="E336">
-        <v>0.29654527535236352</v>
+        <v>0.090388480021430156</v>
       </c>
       <c r="F336">
-        <v>0.30073627761301241</v>
+        <v>0.068253963243263938</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B337">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C337">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D337">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E337">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F337">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B338">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C338">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D338">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E338">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F338">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="339">
@@ -6408,162 +6624,162 @@
     </row>
     <row r="341">
       <c r="A341">
-        <v>0.50701336497890304</v>
+        <v>0.85915939630582172</v>
       </c>
       <c r="B341">
-        <v>0.42174707792207788</v>
+        <v>0.82710096966973712</v>
       </c>
       <c r="C341">
-        <v>0.43024432048007444</v>
+        <v>0.86821414176981704</v>
       </c>
       <c r="D341">
-        <v>0.49298663502109707</v>
+        <v>0.14084060369417817</v>
       </c>
       <c r="E341">
-        <v>0.578252922077922</v>
+        <v>0.17289903033026294</v>
       </c>
       <c r="F341">
-        <v>0.56975567951992556</v>
+        <v>0.13178585823018291</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>0.03004650880799474</v>
+        <v>0.0097746626151298949</v>
       </c>
       <c r="B342">
-        <v>0.019144181967708982</v>
+        <v>0.0082206347331895083</v>
       </c>
       <c r="C342">
-        <v>0.015351589083558588</v>
+        <v>0.0047791942493871321</v>
       </c>
       <c r="D342">
-        <v>0.03004650880799474</v>
+        <v>0.0097746626151298949</v>
       </c>
       <c r="E342">
-        <v>0.019144181967708982</v>
+        <v>0.0082206347331895083</v>
       </c>
       <c r="F342">
-        <v>0.015351589083558588</v>
+        <v>0.0047791942493871321</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>16.874285402635447</v>
+        <v>87.896578136206543</v>
       </c>
       <c r="B343">
-        <v>22.030039133218139</v>
+        <v>100.61278678767324</v>
       </c>
       <c r="C343">
-        <v>28.026044609340293</v>
+        <v>181.66538049403493</v>
       </c>
       <c r="D343">
-        <v>16.407451467037788</v>
+        <v>14.408743221088306</v>
       </c>
       <c r="E343">
-        <v>30.205151782054575</v>
+        <v>21.032321218726644</v>
       </c>
       <c r="F343">
-        <v>37.113791700569209</v>
+        <v>27.574911450205793</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>5.4284076156761808e-60</v>
+        <v>0</v>
       </c>
       <c r="B344">
-        <v>6.8725080591520259e-97</v>
+        <v>0</v>
       </c>
       <c r="C344">
-        <v>5.3317037029786245e-147</v>
+        <v>0</v>
       </c>
       <c r="D344">
-        <v>5.3014145835442133e-57</v>
+        <v>1.6718708169925781e-46</v>
       </c>
       <c r="E344">
-        <v>1.2751588176500242e-166</v>
+        <v>1.0558631712858675e-95</v>
       </c>
       <c r="F344">
-        <v>4.8557778328699186e-232</v>
+        <v>3.5514396809581705e-160</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>0.44808916594719689</v>
+        <v>0.8399985934079125</v>
       </c>
       <c r="B345">
-        <v>0.38420342864911039</v>
+        <v>0.81098645318765006</v>
       </c>
       <c r="C345">
-        <v>0.40013832392676157</v>
+        <v>0.85884571621601991</v>
       </c>
       <c r="D345">
-        <v>0.43406243598939093</v>
+        <v>0.12167980079626892</v>
       </c>
       <c r="E345">
-        <v>0.54070927280495451</v>
+        <v>0.15678451384817588</v>
       </c>
       <c r="F345">
-        <v>0.53964968296661275</v>
+        <v>0.1224174326763858</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>0.56593756401060924</v>
+        <v>0.87832019920373094</v>
       </c>
       <c r="B346">
-        <v>0.45929072719504538</v>
+        <v>0.84321548615182418</v>
       </c>
       <c r="C346">
-        <v>0.4603503170333873</v>
+        <v>0.87758256732361417</v>
       </c>
       <c r="D346">
-        <v>0.55191083405280317</v>
+        <v>0.16000140659208742</v>
       </c>
       <c r="E346">
-        <v>0.6157965713508895</v>
+        <v>0.18901354681235</v>
       </c>
       <c r="F346">
-        <v>0.59986167607323837</v>
+        <v>0.14115428378398001</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B347">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C347">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D347">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E347">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F347">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B348">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C348">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D348">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E348">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F348">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="349">
@@ -6588,62 +6804,62 @@
     </row>
     <row r="351">
       <c r="A351">
-        <v>0.95242268987341772</v>
+        <v>0.98600801356090728</v>
       </c>
       <c r="B351">
-        <v>0.98532461802902982</v>
+        <v>0.99505775984575018</v>
       </c>
       <c r="C351">
-        <v>0.98419713080509319</v>
+        <v>0.99644763683006765</v>
       </c>
       <c r="D351">
-        <v>0.047577310126582284</v>
+        <v>0.013991986439092824</v>
       </c>
       <c r="E351">
-        <v>0.014675381970970205</v>
+        <v>0.0049422401542497836</v>
       </c>
       <c r="F351">
-        <v>0.015802869194906807</v>
+        <v>0.0035523631699322703</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>0.013001164704212049</v>
+        <v>0.0034358579663505673</v>
       </c>
       <c r="B352">
-        <v>0.0048787013265259816</v>
+        <v>0.0017139741935882006</v>
       </c>
       <c r="C352">
-        <v>0.0039198844405611503</v>
+        <v>0.00088863478717792843</v>
       </c>
       <c r="D352">
-        <v>0.013001164704212049</v>
+        <v>0.0034358579663505673</v>
       </c>
       <c r="E352">
-        <v>0.0048787013265259816</v>
+        <v>0.0017139741935882006</v>
       </c>
       <c r="F352">
-        <v>0.0039198844405611503</v>
+        <v>0.00088863478717792843</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>73.256720574031092</v>
+        <v>286.97577816588444</v>
       </c>
       <c r="B353">
-        <v>201.96452950946647</v>
+        <v>580.55585875689258</v>
       </c>
       <c r="C353">
-        <v>251.07809827786676</v>
+        <v>1121.3241381136165</v>
       </c>
       <c r="D353">
-        <v>3.6594652255400195</v>
+        <v>4.0723413412675376</v>
       </c>
       <c r="E353">
-        <v>3.008050911249414</v>
+        <v>2.8834974136356255</v>
       </c>
       <c r="F353">
-        <v>4.0314630276816397</v>
+        <v>3.9975513238837364</v>
       </c>
     </row>
     <row r="354">
@@ -6657,93 +6873,93 @@
         <v>0</v>
       </c>
       <c r="D354">
-        <v>0.00025900576032785545</v>
+        <v>4.697889011678205e-05</v>
       </c>
       <c r="E354">
-        <v>0.0026606715596293154</v>
+        <v>0.0039430469557253621</v>
       </c>
       <c r="F354">
-        <v>5.7418227195233375e-05</v>
+        <v>6.4559840832697702e-05</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>0.92692610983576806</v>
+        <v>0.97927286577416395</v>
       </c>
       <c r="B355">
-        <v>0.97575699838251784</v>
+        <v>0.99169793833696351</v>
       </c>
       <c r="C355">
-        <v>0.97650984665394902</v>
+        <v>0.99470568862420461</v>
       </c>
       <c r="D355">
-        <v>0.022080730088932611</v>
+        <v>0.007256838652349531</v>
       </c>
       <c r="E355">
-        <v>0.0051077623244582242</v>
+        <v>0.0015824186454631056</v>
       </c>
       <c r="F355">
-        <v>0.0081155850437625819</v>
+        <v>0.0018104149640692541</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>0.97791926991106737</v>
+        <v>0.99274316134765062</v>
       </c>
       <c r="B356">
-        <v>0.9948922376755418</v>
+        <v>0.99841758135453684</v>
       </c>
       <c r="C356">
-        <v>0.99188441495623736</v>
+        <v>0.99818958503593069</v>
       </c>
       <c r="D356">
-        <v>0.073073890164231964</v>
+        <v>0.020727134225836118</v>
       </c>
       <c r="E356">
-        <v>0.024243001617482184</v>
+        <v>0.008302061663036462</v>
       </c>
       <c r="F356">
-        <v>0.023490153346051031</v>
+        <v>0.0052943113757952867</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B357">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C357">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D357">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E357">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F357">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B358">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C358">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D358">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E358">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F358">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="359">
@@ -6768,67 +6984,67 @@
     </row>
     <row r="361">
       <c r="A361">
-        <v>0.84761054852320683</v>
+        <v>0.95267170680383439</v>
       </c>
       <c r="B361">
-        <v>0.85601054239877761</v>
+        <v>0.95610447464178372</v>
       </c>
       <c r="C361">
-        <v>0.8589141826580704</v>
+        <v>0.96952090516928524</v>
       </c>
       <c r="D361">
-        <v>0.15238945147679325</v>
+        <v>0.047328293196165543</v>
       </c>
       <c r="E361">
-        <v>0.14398945760122231</v>
+        <v>0.043895525358216378</v>
       </c>
       <c r="F361">
-        <v>0.1410858173419296</v>
+        <v>0.030479094830714704</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>0.020259133765885014</v>
+        <v>0.0058671822957928957</v>
       </c>
       <c r="B362">
-        <v>0.013534917357544423</v>
+        <v>0.0046077892188808407</v>
       </c>
       <c r="C362">
-        <v>0.010859668503305626</v>
+        <v>0.002538448628653264</v>
       </c>
       <c r="D362">
-        <v>0.020259133765885014</v>
+        <v>0.0058671822957928957</v>
       </c>
       <c r="E362">
-        <v>0.013534917357544423</v>
+        <v>0.0046077892188808407</v>
       </c>
       <c r="F362">
-        <v>0.010859668503305626</v>
+        <v>0.002538448628653264</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>41.838439802916184</v>
+        <v>162.37295157625397</v>
       </c>
       <c r="B363">
-        <v>63.24460798585028</v>
+        <v>207.49744166335941</v>
       </c>
       <c r="C363">
-        <v>79.092117995740054</v>
+        <v>381.93442019098495</v>
       </c>
       <c r="D363">
-        <v>7.5220122063366102</v>
+        <v>8.0666137184969742</v>
       </c>
       <c r="E363">
-        <v>10.638369913722594</v>
+        <v>9.5263744223260947</v>
       </c>
       <c r="F363">
-        <v>12.991724130343741</v>
+        <v>12.006977209101501</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>1.9277494500014889e-278</v>
+        <v>0</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -6837,93 +7053,93 @@
         <v>0</v>
       </c>
       <c r="D364">
-        <v>7.962116666545616e-14</v>
+        <v>8.2454866014248347e-16</v>
       </c>
       <c r="E364">
-        <v>8.9001598347630197e-26</v>
+        <v>2.0989831274992514e-21</v>
       </c>
       <c r="F364">
-        <v>3.5989406532820279e-37</v>
+        <v>6.1460613921656752e-33</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>0.80788036762733739</v>
+        <v>0.94117055039954289</v>
       </c>
       <c r="B365">
-        <v>0.82946722019951313</v>
+        <v>0.94707204615863305</v>
       </c>
       <c r="C365">
-        <v>0.83761729015064978</v>
+        <v>0.96454490591946895</v>
       </c>
       <c r="D365">
-        <v>0.11265927058092376</v>
+        <v>0.035827136791873992</v>
       </c>
       <c r="E365">
-        <v>0.11744613540195785</v>
+        <v>0.034863096875065738</v>
       </c>
       <c r="F365">
-        <v>0.11978892483450897</v>
+        <v>0.025503095580898461</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>0.88734072941907627</v>
+        <v>0.9641728632081259</v>
       </c>
       <c r="B366">
-        <v>0.88255386459804208</v>
+        <v>0.96513690312493439</v>
       </c>
       <c r="C366">
-        <v>0.88021107516549102</v>
+        <v>0.97449690441910153</v>
       </c>
       <c r="D366">
-        <v>0.19211963237266275</v>
+        <v>0.058829449600457093</v>
       </c>
       <c r="E366">
-        <v>0.17053277980048676</v>
+        <v>0.052927953841367018</v>
       </c>
       <c r="F366">
-        <v>0.16238270984935022</v>
+        <v>0.035455094080530943</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B367">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C367">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D367">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E367">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F367">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B368">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C368">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D368">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E368">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F368">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="369">
@@ -6948,162 +7164,162 @@
     </row>
     <row r="371">
       <c r="A371">
-        <v>0.78055376090829487</v>
+        <v>0.95569700475330988</v>
       </c>
       <c r="B371">
-        <v>0.71439351632590486</v>
+        <v>0.92891056861346288</v>
       </c>
       <c r="C371">
-        <v>0.72780991364022274</v>
+        <v>0.92344837140509939</v>
       </c>
       <c r="D371">
-        <v>0.21944623909170519</v>
+        <v>0.044302995246690034</v>
       </c>
       <c r="E371">
-        <v>0.28560648367409514</v>
+        <v>0.071089431386537116</v>
       </c>
       <c r="F371">
-        <v>0.27219008635977737</v>
+        <v>0.07655162859490075</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>0.025561217734884616</v>
+        <v>0.005954223206740215</v>
       </c>
       <c r="B372">
-        <v>0.019792404953587941</v>
+        <v>0.0055737370376986199</v>
       </c>
       <c r="C372">
-        <v>0.012335531571851724</v>
+        <v>0.0038934071911050912</v>
       </c>
       <c r="D372">
-        <v>0.025561217734884616</v>
+        <v>0.005954223206740215</v>
       </c>
       <c r="E372">
-        <v>0.019792404953587941</v>
+        <v>0.0055737370376986199</v>
       </c>
       <c r="F372">
-        <v>0.012335531571851724</v>
+        <v>0.0038934071911050912</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>30.536642229021659</v>
+        <v>160.50741995554606</v>
       </c>
       <c r="B373">
-        <v>36.094325980148284</v>
+        <v>166.65848466310268</v>
       </c>
       <c r="C373">
-        <v>59.001098525903977</v>
+        <v>237.18258226748461</v>
       </c>
       <c r="D373">
-        <v>8.5851245964786891</v>
+        <v>7.440600345069158</v>
       </c>
       <c r="E373">
-        <v>14.430105100609351</v>
+        <v>12.754356889411083</v>
       </c>
       <c r="F373">
-        <v>22.065533598964159</v>
+        <v>19.661860380232309</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>1.1715854384474091e-169</v>
+        <v>0</v>
       </c>
       <c r="B374">
-        <v>3.7042373645653233e-222</v>
+        <v>0</v>
       </c>
       <c r="C374">
         <v>0</v>
       </c>
       <c r="D374">
-        <v>1.7418420033428113e-17</v>
+        <v>1.103229572164856e-13</v>
       </c>
       <c r="E374">
-        <v>4.5526123444471159e-45</v>
+        <v>6.578494486548075e-37</v>
       </c>
       <c r="F374">
-        <v>3.6376031405423487e-97</v>
+        <v>3.8134138725245261e-84</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>0.73042566479809534</v>
+        <v>0.94402522622072771</v>
       </c>
       <c r="B375">
-        <v>0.67557863715794553</v>
+        <v>0.91798463889197957</v>
       </c>
       <c r="C375">
-        <v>0.70361870653038761</v>
+        <v>0.91581631179062284</v>
       </c>
       <c r="D375">
-        <v>0.16931814298150563</v>
+        <v>0.032631216714107888</v>
       </c>
       <c r="E375">
-        <v>0.24679160450613577</v>
+        <v>0.06016350166505377</v>
       </c>
       <c r="F375">
-        <v>0.24799887924994224</v>
+        <v>0.068919568980424145</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>0.8306818570184944</v>
+        <v>0.96736878328589204</v>
       </c>
       <c r="B376">
-        <v>0.7532083954938642</v>
+        <v>0.9398364983349462</v>
       </c>
       <c r="C376">
-        <v>0.75200112075005787</v>
+        <v>0.93108043101957594</v>
       </c>
       <c r="D376">
-        <v>0.26957433520190477</v>
+        <v>0.05597477377927218</v>
       </c>
       <c r="E376">
-        <v>0.32442136284205447</v>
+        <v>0.082015361108020463</v>
       </c>
       <c r="F376">
-        <v>0.29638129346961251</v>
+        <v>0.084183688209377355</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B377">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C377">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D377">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E377">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F377">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B378">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C378">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D378">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E378">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F378">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="379">
@@ -7128,162 +7344,162 @@
     </row>
     <row r="381">
       <c r="A381">
-        <v>0.363814128695232</v>
+        <v>0.8641969669695948</v>
       </c>
       <c r="B381">
-        <v>0.44794867562835694</v>
+        <v>0.8636716829399631</v>
       </c>
       <c r="C381">
-        <v>0.44727567424569498</v>
+        <v>0.84656317855548802</v>
       </c>
       <c r="D381">
-        <v>0.636185871304768</v>
+        <v>0.13580303303040525</v>
       </c>
       <c r="E381">
-        <v>0.55205132437164306</v>
+        <v>0.13632831706003679</v>
       </c>
       <c r="F381">
-        <v>0.55272432575430508</v>
+        <v>0.15343682144451207</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>0.030112694358175721</v>
+        <v>0.0099800363290301567</v>
       </c>
       <c r="B382">
-        <v>0.021811920841023909</v>
+        <v>0.0072944266732772054</v>
       </c>
       <c r="C382">
-        <v>0.013660165782678903</v>
+        <v>0.0050815561263776862</v>
       </c>
       <c r="D382">
-        <v>0.030112694358175721</v>
+        <v>0.0099800363290301567</v>
       </c>
       <c r="E382">
-        <v>0.021811920841023909</v>
+        <v>0.0072944266732772054</v>
       </c>
       <c r="F382">
-        <v>0.013660165782678903</v>
+        <v>0.0050815561263776862</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>12.081752777345045</v>
+        <v>86.592567249058902</v>
       </c>
       <c r="B383">
-        <v>20.53687425757818</v>
+        <v>118.40158543288733</v>
       </c>
       <c r="C383">
-        <v>32.743063397725436</v>
+        <v>166.59526284893136</v>
       </c>
       <c r="D383">
-        <v>21.126833213184092</v>
+        <v>13.60746880603814</v>
       </c>
       <c r="E383">
-        <v>25.309615251002732</v>
+        <v>18.689380696562385</v>
       </c>
       <c r="F383">
-        <v>40.462490320224354</v>
+        <v>30.194849299812276</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>1.5583852343409385e-32</v>
+        <v>0</v>
       </c>
       <c r="B384">
-        <v>1.5972432524700364e-85</v>
+        <v>0</v>
       </c>
       <c r="C384">
-        <v>3.5762124196792386e-190</v>
+        <v>0</v>
       </c>
       <c r="D384">
-        <v>5.9376878031425994e-90</v>
+        <v>1.0194209413026803e-41</v>
       </c>
       <c r="E384">
-        <v>1.6711517109875943e-123</v>
+        <v>2.2625736602372649e-76</v>
       </c>
       <c r="F384">
-        <v>7.5241147850909412e-265</v>
+        <v>4.7559887926027448e-190</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>0.3047601332017536</v>
+        <v>0.84463357981815201</v>
       </c>
       <c r="B385">
-        <v>0.40517332448478799</v>
+        <v>0.8493727677504429</v>
       </c>
       <c r="C385">
-        <v>0.42048672739904824</v>
+        <v>0.83660204749798484</v>
       </c>
       <c r="D385">
-        <v>0.57713187581128955</v>
+        <v>0.11623964587896243</v>
       </c>
       <c r="E385">
-        <v>0.50927597322807416</v>
+        <v>0.12202940187051656</v>
       </c>
       <c r="F385">
-        <v>0.5259353789076584</v>
+        <v>0.14347569038700886</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>0.42286812418871039</v>
+        <v>0.88376035412103759</v>
       </c>
       <c r="B386">
-        <v>0.49072402677192589</v>
+        <v>0.8779705981294833</v>
       </c>
       <c r="C386">
-        <v>0.47406462109234171</v>
+        <v>0.8565243096129912</v>
       </c>
       <c r="D386">
-        <v>0.69523986679824645</v>
+        <v>0.15536642018184807</v>
       </c>
       <c r="E386">
-        <v>0.59482667551521196</v>
+        <v>0.15062723224955701</v>
       </c>
       <c r="F386">
-        <v>0.57951327260095176</v>
+        <v>0.16339795250201528</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B387">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C387">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D387">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E387">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F387">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B388">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C388">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D388">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E388">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F388">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="389">
@@ -7308,62 +7524,62 @@
     </row>
     <row r="391">
       <c r="A391">
-        <v>0.97922210345139971</v>
+        <v>0.99590703836581818</v>
       </c>
       <c r="B391">
-        <v>0.98062871578780775</v>
+        <v>0.99521064383542757</v>
       </c>
       <c r="C391">
-        <v>0.97904618897249951</v>
+        <v>0.99388189189949472</v>
       </c>
       <c r="D391">
-        <v>0.020777896548600419</v>
+        <v>0.0040929616341818711</v>
       </c>
       <c r="E391">
-        <v>0.019371284212192252</v>
+        <v>0.004789356164572451</v>
       </c>
       <c r="F391">
-        <v>0.020953811027500657</v>
+        <v>0.0061181081005052583</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>0.0084402778900800283</v>
+        <v>0.0017828975641901944</v>
       </c>
       <c r="B392">
-        <v>0.0060786876744440971</v>
+        <v>0.0015197070363360792</v>
       </c>
       <c r="C392">
-        <v>0.0039798981921784667</v>
+        <v>0.0011830736197159524</v>
       </c>
       <c r="D392">
-        <v>0.0084402778900800283</v>
+        <v>0.0017828975641901944</v>
       </c>
       <c r="E392">
-        <v>0.0060786876744440971</v>
+        <v>0.0015197070363360792</v>
       </c>
       <c r="F392">
-        <v>0.0039798981921784667</v>
+        <v>0.0011830736197159524</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>116.01775631135233</v>
+        <v>558.58903975684473</v>
       </c>
       <c r="B393">
-        <v>161.32243805032923</v>
+        <v>654.87006379520335</v>
       </c>
       <c r="C393">
-        <v>245.99779735486186</v>
+        <v>840.08456898744703</v>
       </c>
       <c r="D393">
-        <v>2.4617550297746664</v>
+        <v>2.295679637680657</v>
       </c>
       <c r="E393">
-        <v>3.1867543209421068</v>
+        <v>3.1514996312179324</v>
       </c>
       <c r="F393">
-        <v>5.2649113157417791</v>
+        <v>5.171367190128179</v>
       </c>
     </row>
     <row r="394">
@@ -7377,93 +7593,93 @@
         <v>0</v>
       </c>
       <c r="D394">
-        <v>0.013906128739149155</v>
+        <v>0.021719213796687419</v>
       </c>
       <c r="E394">
-        <v>0.0014600306979918121</v>
+        <v>0.0016301670831458134</v>
       </c>
       <c r="F394">
-        <v>1.5463635321493841e-07</v>
+        <v>2.3785676880188672e-07</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>0.96266987711934571</v>
+        <v>0.99241210967521221</v>
       </c>
       <c r="B395">
-        <v>0.96870780328947392</v>
+        <v>0.99223163492920408</v>
       </c>
       <c r="C395">
-        <v>0.97124121187181711</v>
+        <v>0.99156276935443566</v>
       </c>
       <c r="D395">
-        <v>0.0042256702165463719</v>
+        <v>0.00059803294357592494</v>
       </c>
       <c r="E395">
-        <v>0.0074503717138583898</v>
+        <v>0.0018103472583489945</v>
       </c>
       <c r="F395">
-        <v>0.013148833926818242</v>
+        <v>0.0037989855554462276</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>0.9957743297834537</v>
+        <v>0.99940196705642415</v>
       </c>
       <c r="B396">
-        <v>0.99254962828614157</v>
+        <v>0.99818965274165106</v>
       </c>
       <c r="C396">
-        <v>0.98685116607318191</v>
+        <v>0.99620101444455378</v>
       </c>
       <c r="D396">
-        <v>0.037330122880654466</v>
+        <v>0.0075878903247878172</v>
       </c>
       <c r="E396">
-        <v>0.031292196710526118</v>
+        <v>0.0077683650707959075</v>
       </c>
       <c r="F396">
-        <v>0.028758788128183072</v>
+        <v>0.0084372306455642899</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B397">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C397">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D397">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E397">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F397">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B398">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C398">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D398">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E398">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F398">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="399">
@@ -7488,67 +7704,67 @@
     </row>
     <row r="401">
       <c r="A401">
-        <v>0.87641000694507354</v>
+        <v>0.97436083264478113</v>
       </c>
       <c r="B401">
-        <v>0.85702909225793034</v>
+        <v>0.96411598691725653</v>
       </c>
       <c r="C401">
-        <v>0.84586822314158305</v>
+        <v>0.95556213367728093</v>
       </c>
       <c r="D401">
-        <v>0.12358999305492649</v>
+        <v>0.025639167355218852</v>
       </c>
       <c r="E401">
-        <v>0.1429709077420695</v>
+        <v>0.035884013082743436</v>
       </c>
       <c r="F401">
-        <v>0.15413177685841695</v>
+        <v>0.044437866322719136</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>0.020838814323052558</v>
+        <v>0.0047956557323139961</v>
       </c>
       <c r="B402">
-        <v>0.015388655249611844</v>
+        <v>0.0041528171994314753</v>
       </c>
       <c r="C402">
-        <v>0.0099501940200897223</v>
+        <v>0.0031037271225931593</v>
       </c>
       <c r="D402">
-        <v>0.020838814323052558</v>
+        <v>0.0047956557323139961</v>
       </c>
       <c r="E402">
-        <v>0.015388655249611844</v>
+        <v>0.0041528171994314753</v>
       </c>
       <c r="F402">
-        <v>0.0099501940200897223</v>
+        <v>0.0031037271225931593</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>42.056615763189605</v>
+        <v>203.1757254965909</v>
       </c>
       <c r="B403">
-        <v>55.692266696243493</v>
+        <v>232.15950537125616</v>
       </c>
       <c r="C403">
-        <v>85.010224065355033</v>
+        <v>307.87569136519653</v>
       </c>
       <c r="D403">
-        <v>5.9307593579452034</v>
+        <v>5.3463319275521597</v>
       </c>
       <c r="E403">
-        <v>9.2906693549896584</v>
+        <v>8.6408843345322293</v>
       </c>
       <c r="F403">
-        <v>15.490328786274976</v>
+        <v>14.317581593832697</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>1.336412324064415e-280</v>
+        <v>0</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -7557,93 +7773,93 @@
         <v>0</v>
       </c>
       <c r="D404">
-        <v>3.5195055837144286e-09</v>
+        <v>9.216062867615853e-08</v>
       </c>
       <c r="E404">
-        <v>3.7243764019237048e-20</v>
+        <v>6.6295329921904875e-18</v>
       </c>
       <c r="F404">
-        <v>2.5659562226106171e-51</v>
+        <v>6.0342026331535337e-46</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>0.8355430146897338</v>
+        <v>0.96496013843454154</v>
       </c>
       <c r="B405">
-        <v>0.82685040525795628</v>
+        <v>0.95597541828973298</v>
       </c>
       <c r="C405">
-        <v>0.82635490075892226</v>
+        <v>0.94947804607380182</v>
       </c>
       <c r="D405">
-        <v>0.082723000799586777</v>
+        <v>0.016238473144979247</v>
       </c>
       <c r="E405">
-        <v>0.11279222074209541</v>
+        <v>0.027743444455219861</v>
       </c>
       <c r="F405">
-        <v>0.13461845447575613</v>
+        <v>0.03835377871924002</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>0.91727699920041328</v>
+        <v>0.98376152685502072</v>
       </c>
       <c r="B406">
-        <v>0.88720777925790439</v>
+        <v>0.97225655554478008</v>
       </c>
       <c r="C406">
-        <v>0.86538154552424384</v>
+        <v>0.96164622128076005</v>
       </c>
       <c r="D406">
-        <v>0.1644569853102662</v>
+        <v>0.035039861565458456</v>
       </c>
       <c r="E406">
-        <v>0.17314959474204358</v>
+        <v>0.044024581710267012</v>
       </c>
       <c r="F406">
-        <v>0.17364509924107777</v>
+        <v>0.050521953926198251</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B407">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="C407">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="D407">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="E407">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="F407">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B408">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="C408">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="D408">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="E408">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="F408">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="409">
@@ -7668,26 +7884,26 @@
     </row>
     <row r="411">
       <c r="A411">
-        <v>0.72844779342287269</v>
+        <v>0.93036652349388338</v>
       </c>
       <c r="B411">
-        <v>0.27155220657712742</v>
+        <v>0.06963347650611687</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>0.0097075465216583546</v>
+        <v>0.0027767927822710953</v>
       </c>
       <c r="B412">
-        <v>0.0097075465216583546</v>
+        <v>0.0027767927822710953</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>75.039330668943407</v>
+        <v>335.0507569142236</v>
       </c>
       <c r="B413">
-        <v>27.973309833877341</v>
+        <v>25.076943785904234</v>
       </c>
     </row>
     <row r="414">
@@ -7695,39 +7911,39 @@
         <v>0</v>
       </c>
       <c r="B414">
-        <v>1.5624007784903548e-146</v>
+        <v>8.4523957948184409e-134</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>0.70941032697354123</v>
+        <v>0.92492330961690739</v>
       </c>
       <c r="B415">
-        <v>0.2525147401277959</v>
+        <v>0.064190262629140876</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>0.74748525987220416</v>
+        <v>0.93580973737085937</v>
       </c>
       <c r="B416">
-        <v>0.29058967302645894</v>
+        <v>0.075076690383092864</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B417">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B418">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="419">
@@ -7740,66 +7956,66 @@
     </row>
     <row r="421">
       <c r="A421">
-        <v>0.43889810939969448</v>
+        <v>0.8566307387434744</v>
       </c>
       <c r="B421">
-        <v>0.56110189060030558</v>
+        <v>0.1433692612565256</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>0.010756828046231494</v>
+        <v>0.0036991179877671767</v>
       </c>
       <c r="B422">
-        <v>0.010756828046231494</v>
+        <v>0.0036991179877671767</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>40.801815136708107</v>
+        <v>231.57702500334275</v>
       </c>
       <c r="B423">
-        <v>52.162392871649544</v>
+        <v>38.757688111231261</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>3.381961913033941e-268</v>
+        <v>0</v>
       </c>
       <c r="B424">
-        <v>0</v>
+        <v>5.306703266725183e-302</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>0.41780289728049702</v>
+        <v>0.84937953494744689</v>
       </c>
       <c r="B425">
-        <v>0.54000667848110817</v>
+        <v>0.13611805746049815</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>0.45999332151889194</v>
+        <v>0.8638819425395019</v>
       </c>
       <c r="B426">
-        <v>0.58219710271950298</v>
+        <v>0.15062046505255305</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B427">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B428">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="429">
@@ -7812,26 +8028,26 @@
     </row>
     <row r="431">
       <c r="A431">
-        <v>0.9792703199201398</v>
+        <v>0.99465079080430008</v>
       </c>
       <c r="B431">
-        <v>0.020729680079860285</v>
+        <v>0.0053492091956998901</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>0.0030893175327830532</v>
+        <v>0.00080405861086802063</v>
       </c>
       <c r="B432">
-        <v>0.0030893175327830532</v>
+        <v>0.00080405861086802063</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>316.98597166797254</v>
+        <v>1237.0376703391385</v>
       </c>
       <c r="B433">
-        <v>6.710116347666494</v>
+        <v>6.6527602881152621</v>
       </c>
     </row>
     <row r="434">
@@ -7839,39 +8055,39 @@
         <v>0</v>
       </c>
       <c r="B434">
-        <v>2.496109292331534e-11</v>
+        <v>3.0601755751294509e-11</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>0.9732118602722285</v>
+        <v>0.99307463322548384</v>
       </c>
       <c r="B435">
-        <v>0.014671220431948972</v>
+        <v>0.0037730516168836396</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>0.98532877956805109</v>
+        <v>0.99622694838311632</v>
       </c>
       <c r="B436">
-        <v>0.026788139727771599</v>
+        <v>0.006925366774516141</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B437">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B438">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="439">
@@ -7884,26 +8100,26 @@
     </row>
     <row r="441">
       <c r="A441">
-        <v>0.8533837772572932</v>
+        <v>0.96230015023724236</v>
       </c>
       <c r="B441">
-        <v>0.14661622274270669</v>
+        <v>0.03769984976275758</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>0.0076573952354562647</v>
+        <v>0.0020966702207048447</v>
       </c>
       <c r="B442">
-        <v>0.0076573952354562647</v>
+        <v>0.0020966702207048447</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>111.44570066147884</v>
+        <v>458.9659073393729</v>
       </c>
       <c r="B443">
-        <v>19.147009947171753</v>
+        <v>17.980819964182967</v>
       </c>
     </row>
     <row r="444">
@@ -7911,39 +8127,39 @@
         <v>0</v>
       </c>
       <c r="B444">
-        <v>2.021128402196518e-75</v>
+        <v>6.1860342361503805e-71</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>0.83836686185451581</v>
+        <v>0.95819014803842917</v>
       </c>
       <c r="B445">
-        <v>0.13159930733992928</v>
+        <v>0.033589847563944342</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>0.86840069266007058</v>
+        <v>0.96641015243605555</v>
       </c>
       <c r="B446">
-        <v>0.16163313814548411</v>
+        <v>0.041809851961570818</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
       <c r="B447">
-        <v>2090.002863961814</v>
+        <v>8235.0007281553389</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
       <c r="B448">
-        <v>1.9610996874294981</v>
+        <v>1.960252097934392</v>
       </c>
     </row>
     <row r="449">
